--- a/RawData/五期成绩上传版.xlsx
+++ b/RawData/五期成绩上传版.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\创新创业\计算机等级考试信息录入\RawData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED3DBD7D-B52F-4149-9DD0-0D08C26ECCBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A35B4076-899F-4398-836F-B6B500DCCF49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1485" yWindow="1395" windowWidth="17775" windowHeight="13155" tabRatio="791" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="791" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1012" uniqueCount="961">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1014" uniqueCount="963">
   <si>
     <t>序号</t>
   </si>
@@ -2938,6 +2938,14 @@
   </si>
   <si>
     <t>13325092358</t>
+  </si>
+  <si>
+    <t>是否及格</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>17658118219</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -3354,10 +3362,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E45"/>
+  <dimension ref="A1:F45"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="K45" sqref="K45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3367,7 +3375,7 @@
     <col min="4" max="4" width="12.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3384,7 +3392,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -3400,8 +3408,12 @@
       <c r="E2" s="11">
         <v>100</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="F2" t="str">
+        <f>IF(AND(D2&gt;=70,E2&gt;=60),"是","否")</f>
+        <v>是</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -3417,8 +3429,12 @@
       <c r="E3" s="11">
         <v>100</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="F3" t="str">
+        <f t="shared" ref="F3:F45" si="0">IF(AND(D3&gt;=70,E3&gt;=60),"是","否")</f>
+        <v>是</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -3434,8 +3450,12 @@
       <c r="E4" s="11">
         <v>94</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="F4" t="str">
+        <f t="shared" si="0"/>
+        <v>是</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -3451,8 +3471,12 @@
       <c r="E5" s="11">
         <v>100</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="F5" t="str">
+        <f t="shared" si="0"/>
+        <v>是</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -3468,8 +3492,12 @@
       <c r="E6" s="12">
         <v>99</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="F6" t="str">
+        <f t="shared" si="0"/>
+        <v>是</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <v>6</v>
       </c>
@@ -3485,8 +3513,12 @@
       <c r="E7" s="12">
         <v>100</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="F7" t="str">
+        <f t="shared" si="0"/>
+        <v>是</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -3502,8 +3534,12 @@
       <c r="E8" s="12">
         <v>99</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="F8" t="str">
+        <f t="shared" si="0"/>
+        <v>是</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
         <v>8</v>
       </c>
@@ -3519,8 +3555,12 @@
       <c r="E9" s="12">
         <v>97</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="F9" t="str">
+        <f t="shared" si="0"/>
+        <v>是</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
         <v>9</v>
       </c>
@@ -3536,8 +3576,12 @@
       <c r="E10" s="12">
         <v>98</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="F10" t="str">
+        <f t="shared" si="0"/>
+        <v>是</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
         <v>10</v>
       </c>
@@ -3553,8 +3597,12 @@
       <c r="E11" s="12">
         <v>100</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="F11" t="str">
+        <f t="shared" si="0"/>
+        <v>否</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
         <v>11</v>
       </c>
@@ -3570,8 +3618,12 @@
       <c r="E12" s="12">
         <v>100</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="F12" t="str">
+        <f t="shared" si="0"/>
+        <v>是</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
         <v>12</v>
       </c>
@@ -3587,8 +3639,12 @@
       <c r="E13" s="12">
         <v>99</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="F13" t="str">
+        <f t="shared" si="0"/>
+        <v>是</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
         <v>13</v>
       </c>
@@ -3604,8 +3660,12 @@
       <c r="E14" s="12">
         <v>100</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="F14" t="str">
+        <f t="shared" si="0"/>
+        <v>是</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A15" s="2">
         <v>14</v>
       </c>
@@ -3621,8 +3681,12 @@
       <c r="E15" s="12">
         <v>100</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="F15" t="str">
+        <f t="shared" si="0"/>
+        <v>是</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A16" s="2">
         <v>15</v>
       </c>
@@ -3638,8 +3702,12 @@
       <c r="E16" s="12">
         <v>100</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="F16" t="str">
+        <f t="shared" si="0"/>
+        <v>是</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A17" s="2">
         <v>16</v>
       </c>
@@ -3655,8 +3723,12 @@
       <c r="E17" s="12">
         <v>100</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="F17" t="str">
+        <f t="shared" si="0"/>
+        <v>是</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A18" s="2">
         <v>17</v>
       </c>
@@ -3672,8 +3744,12 @@
       <c r="E18" s="12">
         <v>100</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="F18" t="str">
+        <f t="shared" si="0"/>
+        <v>是</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A19" s="2">
         <v>18</v>
       </c>
@@ -3689,8 +3765,12 @@
       <c r="E19" s="12">
         <v>100</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="F19" t="str">
+        <f t="shared" si="0"/>
+        <v>是</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A20" s="2">
         <v>19</v>
       </c>
@@ -3706,8 +3786,12 @@
       <c r="E20" s="12">
         <v>80</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="F20" t="str">
+        <f t="shared" si="0"/>
+        <v>是</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A21" s="2">
         <v>20</v>
       </c>
@@ -3723,8 +3807,12 @@
       <c r="E21" s="12">
         <v>100</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="F21" t="str">
+        <f t="shared" si="0"/>
+        <v>是</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A22" s="2">
         <v>21</v>
       </c>
@@ -3740,8 +3828,12 @@
       <c r="E22" s="11">
         <v>100</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="F22" t="str">
+        <f t="shared" si="0"/>
+        <v>是</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A23" s="2">
         <v>22</v>
       </c>
@@ -3757,8 +3849,12 @@
       <c r="E23" s="11">
         <v>97</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="F23" t="str">
+        <f t="shared" si="0"/>
+        <v>是</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A24" s="2">
         <v>23</v>
       </c>
@@ -3774,8 +3870,12 @@
       <c r="E24" s="11">
         <v>100</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="F24" t="str">
+        <f t="shared" si="0"/>
+        <v>是</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A25" s="2">
         <v>24</v>
       </c>
@@ -3791,8 +3891,12 @@
       <c r="E25" s="11">
         <v>100</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="F25" t="str">
+        <f t="shared" si="0"/>
+        <v>是</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A26" s="2">
         <v>25</v>
       </c>
@@ -3808,8 +3912,12 @@
       <c r="E26" s="12">
         <v>100</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="F26" t="str">
+        <f t="shared" si="0"/>
+        <v>是</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A27" s="2">
         <v>26</v>
       </c>
@@ -3825,8 +3933,12 @@
       <c r="E27" s="12">
         <v>100</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="F27" t="str">
+        <f t="shared" si="0"/>
+        <v>是</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A28" s="2">
         <v>27</v>
       </c>
@@ -3842,8 +3954,12 @@
       <c r="E28" s="12">
         <v>100</v>
       </c>
-    </row>
-    <row r="29" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="F28" t="str">
+        <f t="shared" si="0"/>
+        <v>是</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A29" s="2">
         <v>28</v>
       </c>
@@ -3859,8 +3975,12 @@
       <c r="E29" s="12">
         <v>100</v>
       </c>
-    </row>
-    <row r="30" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="F29" t="str">
+        <f t="shared" si="0"/>
+        <v>是</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A30" s="2">
         <v>29</v>
       </c>
@@ -3876,8 +3996,12 @@
       <c r="E30" s="12">
         <v>100</v>
       </c>
-    </row>
-    <row r="31" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="F30" t="str">
+        <f t="shared" si="0"/>
+        <v>是</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A31" s="2">
         <v>30</v>
       </c>
@@ -3893,8 +4017,12 @@
       <c r="E31" s="12">
         <v>100</v>
       </c>
-    </row>
-    <row r="32" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="F31" t="str">
+        <f t="shared" si="0"/>
+        <v>是</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A32" s="2">
         <v>31</v>
       </c>
@@ -3910,8 +4038,12 @@
       <c r="E32" s="12">
         <v>100</v>
       </c>
-    </row>
-    <row r="33" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="F32" t="str">
+        <f t="shared" si="0"/>
+        <v>是</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A33" s="2">
         <v>32</v>
       </c>
@@ -3927,8 +4059,12 @@
       <c r="E33" s="12">
         <v>100</v>
       </c>
-    </row>
-    <row r="34" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="F33" t="str">
+        <f t="shared" si="0"/>
+        <v>是</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A34" s="2">
         <v>33</v>
       </c>
@@ -3944,8 +4080,12 @@
       <c r="E34" s="12">
         <v>100</v>
       </c>
-    </row>
-    <row r="35" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="F34" t="str">
+        <f t="shared" si="0"/>
+        <v>是</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A35" s="2">
         <v>34</v>
       </c>
@@ -3961,8 +4101,12 @@
       <c r="E35" s="12">
         <v>79</v>
       </c>
-    </row>
-    <row r="36" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="F35" t="str">
+        <f t="shared" si="0"/>
+        <v>是</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A36" s="2">
         <v>35</v>
       </c>
@@ -3978,8 +4122,12 @@
       <c r="E36" s="12">
         <v>97</v>
       </c>
-    </row>
-    <row r="37" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="F36" t="str">
+        <f>IF(AND(D36&gt;=70,E36&gt;=60),"是","否")</f>
+        <v>是</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A37" s="2">
         <v>36</v>
       </c>
@@ -3995,8 +4143,12 @@
       <c r="E37" s="12">
         <v>100</v>
       </c>
-    </row>
-    <row r="38" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="F37" t="str">
+        <f t="shared" si="0"/>
+        <v>是</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A38" s="2">
         <v>37</v>
       </c>
@@ -4012,8 +4164,12 @@
       <c r="E38" s="12">
         <v>100</v>
       </c>
-    </row>
-    <row r="39" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="F38" t="str">
+        <f t="shared" si="0"/>
+        <v>是</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A39" s="2">
         <v>38</v>
       </c>
@@ -4029,8 +4185,12 @@
       <c r="E39" s="12">
         <v>100</v>
       </c>
-    </row>
-    <row r="40" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="F39" t="str">
+        <f t="shared" si="0"/>
+        <v>是</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A40" s="2">
         <v>39</v>
       </c>
@@ -4046,8 +4206,12 @@
       <c r="E40" s="12">
         <v>97</v>
       </c>
-    </row>
-    <row r="41" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="F40" t="str">
+        <f t="shared" si="0"/>
+        <v>是</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A41" s="2">
         <v>40</v>
       </c>
@@ -4063,8 +4227,12 @@
       <c r="E41" s="12">
         <v>100</v>
       </c>
-    </row>
-    <row r="42" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="F41" t="str">
+        <f t="shared" si="0"/>
+        <v>是</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A42" s="2">
         <v>41</v>
       </c>
@@ -4080,8 +4248,12 @@
       <c r="E42" s="11">
         <v>90</v>
       </c>
-    </row>
-    <row r="43" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="F42" t="str">
+        <f t="shared" si="0"/>
+        <v>是</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A43" s="2">
         <v>42</v>
       </c>
@@ -4097,8 +4269,12 @@
       <c r="E43" s="11">
         <v>77</v>
       </c>
-    </row>
-    <row r="44" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="F43" t="str">
+        <f t="shared" si="0"/>
+        <v>是</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A44" s="2">
         <v>43</v>
       </c>
@@ -4114,8 +4290,12 @@
       <c r="E44" s="11">
         <v>100</v>
       </c>
-    </row>
-    <row r="45" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="F44" t="str">
+        <f t="shared" si="0"/>
+        <v>否</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A45" s="2">
         <v>44</v>
       </c>
@@ -4130,6 +4310,10 @@
       </c>
       <c r="E45" s="11">
         <v>100</v>
+      </c>
+      <c r="F45" t="str">
+        <f t="shared" si="0"/>
+        <v>是</v>
       </c>
     </row>
   </sheetData>
@@ -4141,15 +4325,15 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49C887A6-EC5A-4EBD-8F9F-95E878904025}">
-  <dimension ref="A1:E45"/>
+  <dimension ref="A1:F45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+      <selection activeCell="F51" sqref="F51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4166,7 +4350,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -4182,8 +4366,12 @@
       <c r="E2">
         <v>100</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="F2" t="str">
+        <f>IF(AND(D2&gt;=70,E2&gt;=60),"是","否")</f>
+        <v>是</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -4199,8 +4387,12 @@
       <c r="E3">
         <v>100</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="F3" t="str">
+        <f t="shared" ref="F3:F45" si="0">IF(AND(D3&gt;=70,E3&gt;=60),"是","否")</f>
+        <v>是</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -4216,8 +4408,12 @@
       <c r="E4">
         <v>100</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="F4" t="str">
+        <f t="shared" si="0"/>
+        <v>是</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -4233,8 +4429,12 @@
       <c r="E5">
         <v>95</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="F5" t="str">
+        <f t="shared" si="0"/>
+        <v>否</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -4250,8 +4450,12 @@
       <c r="E6">
         <v>97</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="F6" t="str">
+        <f t="shared" si="0"/>
+        <v>是</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <v>6</v>
       </c>
@@ -4267,8 +4471,12 @@
       <c r="E7">
         <v>100</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="F7" t="str">
+        <f t="shared" si="0"/>
+        <v>否</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -4284,8 +4492,12 @@
       <c r="E8">
         <v>97</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="F8" t="str">
+        <f t="shared" si="0"/>
+        <v>否</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
         <v>8</v>
       </c>
@@ -4301,8 +4513,12 @@
       <c r="E9">
         <v>100</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="F9" t="str">
+        <f t="shared" si="0"/>
+        <v>是</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
         <v>9</v>
       </c>
@@ -4318,8 +4534,12 @@
       <c r="E10">
         <v>100</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="F10" t="str">
+        <f t="shared" si="0"/>
+        <v>否</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
         <v>10</v>
       </c>
@@ -4335,8 +4555,12 @@
       <c r="E11">
         <v>100</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="F11" t="str">
+        <f t="shared" si="0"/>
+        <v>是</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
         <v>11</v>
       </c>
@@ -4352,8 +4576,12 @@
       <c r="E12">
         <v>100</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="F12" t="str">
+        <f t="shared" si="0"/>
+        <v>是</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
         <v>12</v>
       </c>
@@ -4369,8 +4597,12 @@
       <c r="E13">
         <v>99</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="F13" t="str">
+        <f t="shared" si="0"/>
+        <v>是</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
         <v>13</v>
       </c>
@@ -4386,8 +4618,12 @@
       <c r="E14">
         <v>97</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="F14" t="str">
+        <f t="shared" si="0"/>
+        <v>是</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A15" s="2">
         <v>14</v>
       </c>
@@ -4403,8 +4639,12 @@
       <c r="E15">
         <v>100</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="F15" t="str">
+        <f t="shared" si="0"/>
+        <v>是</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A16" s="2">
         <v>15</v>
       </c>
@@ -4420,8 +4660,12 @@
       <c r="E16">
         <v>100</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="F16" t="str">
+        <f t="shared" si="0"/>
+        <v>是</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A17" s="2">
         <v>16</v>
       </c>
@@ -4437,8 +4681,12 @@
       <c r="E17">
         <v>99</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="F17" t="str">
+        <f t="shared" si="0"/>
+        <v>是</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A18" s="2">
         <v>17</v>
       </c>
@@ -4454,8 +4702,12 @@
       <c r="E18">
         <v>100</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="F18" t="str">
+        <f t="shared" si="0"/>
+        <v>是</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A19" s="2">
         <v>18</v>
       </c>
@@ -4471,8 +4723,12 @@
       <c r="E19">
         <v>100</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="F19" t="str">
+        <f t="shared" si="0"/>
+        <v>是</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A20" s="2">
         <v>19</v>
       </c>
@@ -4488,8 +4744,12 @@
       <c r="E20">
         <v>100</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="F20" t="str">
+        <f t="shared" si="0"/>
+        <v>是</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A21" s="2">
         <v>20</v>
       </c>
@@ -4505,8 +4765,12 @@
       <c r="E21">
         <v>95</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="F21" t="str">
+        <f t="shared" si="0"/>
+        <v>是</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A22" s="2">
         <v>21</v>
       </c>
@@ -4522,8 +4786,12 @@
       <c r="E22">
         <v>100</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="F22" t="str">
+        <f t="shared" si="0"/>
+        <v>是</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A23" s="2">
         <v>22</v>
       </c>
@@ -4539,8 +4807,12 @@
       <c r="E23">
         <v>100</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="F23" t="str">
+        <f t="shared" si="0"/>
+        <v>是</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A24" s="2">
         <v>23</v>
       </c>
@@ -4556,8 +4828,12 @@
       <c r="E24">
         <v>95</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="F24" t="str">
+        <f t="shared" si="0"/>
+        <v>是</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A25" s="2">
         <v>24</v>
       </c>
@@ -4573,8 +4849,12 @@
       <c r="E25">
         <v>79</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="F25" t="str">
+        <f t="shared" si="0"/>
+        <v>是</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A26" s="2">
         <v>25</v>
       </c>
@@ -4590,8 +4870,12 @@
       <c r="E26">
         <v>100</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="F26" t="str">
+        <f t="shared" si="0"/>
+        <v>是</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A27" s="2">
         <v>26</v>
       </c>
@@ -4607,8 +4891,12 @@
       <c r="E27">
         <v>73</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="F27" t="str">
+        <f t="shared" si="0"/>
+        <v>是</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A28" s="2">
         <v>27</v>
       </c>
@@ -4624,8 +4912,12 @@
       <c r="E28">
         <v>100</v>
       </c>
-    </row>
-    <row r="29" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="F28" t="str">
+        <f t="shared" si="0"/>
+        <v>是</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A29" s="2">
         <v>28</v>
       </c>
@@ -4641,8 +4933,12 @@
       <c r="E29">
         <v>100</v>
       </c>
-    </row>
-    <row r="30" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="F29" t="str">
+        <f t="shared" si="0"/>
+        <v>是</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A30" s="2">
         <v>29</v>
       </c>
@@ -4658,8 +4954,12 @@
       <c r="E30">
         <v>99</v>
       </c>
-    </row>
-    <row r="31" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="F30" t="str">
+        <f t="shared" si="0"/>
+        <v>是</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A31" s="2">
         <v>30</v>
       </c>
@@ -4675,8 +4975,12 @@
       <c r="E31">
         <v>100</v>
       </c>
-    </row>
-    <row r="32" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="F31" t="str">
+        <f t="shared" si="0"/>
+        <v>是</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A32" s="2">
         <v>31</v>
       </c>
@@ -4692,8 +4996,12 @@
       <c r="E32">
         <v>97</v>
       </c>
-    </row>
-    <row r="33" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="F32" t="str">
+        <f t="shared" si="0"/>
+        <v>是</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A33" s="2">
         <v>32</v>
       </c>
@@ -4709,8 +5017,12 @@
       <c r="E33">
         <v>100</v>
       </c>
-    </row>
-    <row r="34" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="F33" t="str">
+        <f t="shared" si="0"/>
+        <v>是</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A34" s="2">
         <v>33</v>
       </c>
@@ -4726,8 +5038,12 @@
       <c r="E34">
         <v>100</v>
       </c>
-    </row>
-    <row r="35" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="F34" t="str">
+        <f t="shared" si="0"/>
+        <v>否</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A35" s="2">
         <v>34</v>
       </c>
@@ -4743,8 +5059,12 @@
       <c r="E35">
         <v>96</v>
       </c>
-    </row>
-    <row r="36" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="F35" t="str">
+        <f t="shared" si="0"/>
+        <v>是</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A36" s="2">
         <v>35</v>
       </c>
@@ -4760,8 +5080,12 @@
       <c r="E36">
         <v>100</v>
       </c>
-    </row>
-    <row r="37" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="F36" t="str">
+        <f t="shared" si="0"/>
+        <v>是</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A37" s="2">
         <v>36</v>
       </c>
@@ -4777,8 +5101,12 @@
       <c r="E37">
         <v>100</v>
       </c>
-    </row>
-    <row r="38" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="F37" t="str">
+        <f t="shared" si="0"/>
+        <v>否</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A38" s="2">
         <v>37</v>
       </c>
@@ -4794,8 +5122,12 @@
       <c r="E38">
         <v>100</v>
       </c>
-    </row>
-    <row r="39" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="F38" t="str">
+        <f t="shared" si="0"/>
+        <v>是</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A39" s="2">
         <v>38</v>
       </c>
@@ -4811,8 +5143,12 @@
       <c r="E39">
         <v>100</v>
       </c>
-    </row>
-    <row r="40" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="F39" t="str">
+        <f t="shared" si="0"/>
+        <v>是</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A40" s="2">
         <v>39</v>
       </c>
@@ -4828,8 +5164,12 @@
       <c r="E40">
         <v>100</v>
       </c>
-    </row>
-    <row r="41" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="F40" t="str">
+        <f t="shared" si="0"/>
+        <v>否</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A41" s="2">
         <v>40</v>
       </c>
@@ -4845,8 +5185,12 @@
       <c r="E41">
         <v>95</v>
       </c>
-    </row>
-    <row r="42" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="F41" t="str">
+        <f t="shared" si="0"/>
+        <v>否</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A42" s="2">
         <v>41</v>
       </c>
@@ -4862,8 +5206,12 @@
       <c r="E42">
         <v>100</v>
       </c>
-    </row>
-    <row r="43" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="F42" t="str">
+        <f t="shared" si="0"/>
+        <v>否</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A43" s="2">
         <v>42</v>
       </c>
@@ -4879,8 +5227,12 @@
       <c r="E43">
         <v>99</v>
       </c>
-    </row>
-    <row r="44" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="F43" t="str">
+        <f t="shared" si="0"/>
+        <v>是</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A44" s="2">
         <v>43</v>
       </c>
@@ -4896,8 +5248,12 @@
       <c r="E44">
         <v>100</v>
       </c>
-    </row>
-    <row r="45" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="F44" t="str">
+        <f t="shared" si="0"/>
+        <v>是</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A45" s="2">
         <v>44</v>
       </c>
@@ -4912,6 +5268,10 @@
       </c>
       <c r="E45">
         <v>100</v>
+      </c>
+      <c r="F45" t="str">
+        <f t="shared" si="0"/>
+        <v>是</v>
       </c>
     </row>
   </sheetData>
@@ -4922,10 +5282,10 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFD6AB6A-FBE1-495B-A57B-082B8FEAB732}">
-  <dimension ref="A1:E42"/>
+  <dimension ref="A1:F42"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G44" sqref="G44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4933,7 +5293,7 @@
     <col min="3" max="3" width="16.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4949,8 +5309,11 @@
       <c r="E1" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="F1" t="s">
+        <v>961</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -4966,8 +5329,12 @@
       <c r="E2">
         <v>100</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="F2" t="str">
+        <f>IF(AND(D2&gt;=70,E2&gt;=60),"是","否")</f>
+        <v>是</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -4983,8 +5350,12 @@
       <c r="E3">
         <v>100</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="F3" t="str">
+        <f t="shared" ref="F3:F42" si="0">IF(AND(D3&gt;=70,E3&gt;=60),"是","否")</f>
+        <v>是</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -5000,8 +5371,12 @@
       <c r="E4">
         <v>100</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="F4" t="str">
+        <f t="shared" si="0"/>
+        <v>是</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -5017,8 +5392,12 @@
       <c r="E5">
         <v>100</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="F5" t="str">
+        <f t="shared" si="0"/>
+        <v>是</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -5034,8 +5413,12 @@
       <c r="E6">
         <v>100</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="F6" t="str">
+        <f t="shared" si="0"/>
+        <v>是</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <v>6</v>
       </c>
@@ -5051,8 +5434,12 @@
       <c r="E7">
         <v>100</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="F7" t="str">
+        <f t="shared" si="0"/>
+        <v>是</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -5068,8 +5455,12 @@
       <c r="E8">
         <v>100</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="F8" t="str">
+        <f t="shared" si="0"/>
+        <v>是</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
         <v>8</v>
       </c>
@@ -5085,8 +5476,12 @@
       <c r="E9">
         <v>100</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="F9" t="str">
+        <f t="shared" si="0"/>
+        <v>是</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
         <v>9</v>
       </c>
@@ -5102,8 +5497,12 @@
       <c r="E10">
         <v>100</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="F10" t="str">
+        <f t="shared" si="0"/>
+        <v>是</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
         <v>10</v>
       </c>
@@ -5119,8 +5518,12 @@
       <c r="E11">
         <v>100</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="F11" t="str">
+        <f t="shared" si="0"/>
+        <v>是</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
         <v>11</v>
       </c>
@@ -5136,8 +5539,12 @@
       <c r="E12">
         <v>94</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="F12" t="str">
+        <f t="shared" si="0"/>
+        <v>否</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
         <v>12</v>
       </c>
@@ -5153,8 +5560,12 @@
       <c r="E13">
         <v>86</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="F13" t="str">
+        <f t="shared" si="0"/>
+        <v>是</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
         <v>13</v>
       </c>
@@ -5170,8 +5581,12 @@
       <c r="E14">
         <v>100</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="F14" t="str">
+        <f t="shared" si="0"/>
+        <v>是</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A15" s="2">
         <v>14</v>
       </c>
@@ -5187,8 +5602,12 @@
       <c r="E15">
         <v>100</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="F15" t="str">
+        <f t="shared" si="0"/>
+        <v>是</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A16" s="2">
         <v>15</v>
       </c>
@@ -5204,8 +5623,12 @@
       <c r="E16">
         <v>100</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="F16" t="str">
+        <f t="shared" si="0"/>
+        <v>是</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A17" s="2">
         <v>16</v>
       </c>
@@ -5221,8 +5644,12 @@
       <c r="E17">
         <v>100</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="F17" t="str">
+        <f t="shared" si="0"/>
+        <v>是</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A18" s="2">
         <v>17</v>
       </c>
@@ -5238,8 +5665,12 @@
       <c r="E18">
         <v>94</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="F18" t="str">
+        <f t="shared" si="0"/>
+        <v>是</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A19" s="2">
         <v>18</v>
       </c>
@@ -5255,8 +5686,12 @@
       <c r="E19">
         <v>90</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="F19" t="str">
+        <f t="shared" si="0"/>
+        <v>是</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A20" s="2">
         <v>19</v>
       </c>
@@ -5272,8 +5707,12 @@
       <c r="E20">
         <v>100</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="F20" t="str">
+        <f t="shared" si="0"/>
+        <v>是</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A21" s="2">
         <v>20</v>
       </c>
@@ -5289,8 +5728,12 @@
       <c r="E21">
         <v>100</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="F21" t="str">
+        <f t="shared" si="0"/>
+        <v>否</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A22" s="2">
         <v>21</v>
       </c>
@@ -5306,8 +5749,12 @@
       <c r="E22">
         <v>99</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="F22" t="str">
+        <f t="shared" si="0"/>
+        <v>是</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A23" s="2">
         <v>22</v>
       </c>
@@ -5323,8 +5770,12 @@
       <c r="E23">
         <v>100</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="F23" t="str">
+        <f t="shared" si="0"/>
+        <v>否</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A24" s="2">
         <v>23</v>
       </c>
@@ -5340,8 +5791,12 @@
       <c r="E24">
         <v>100</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="F24" t="str">
+        <f t="shared" si="0"/>
+        <v>是</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A25" s="2">
         <v>24</v>
       </c>
@@ -5357,8 +5812,12 @@
       <c r="E25">
         <v>100</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="F25" t="str">
+        <f t="shared" si="0"/>
+        <v>是</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A26" s="2">
         <v>25</v>
       </c>
@@ -5374,8 +5833,12 @@
       <c r="E26">
         <v>100</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="F26" t="str">
+        <f t="shared" si="0"/>
+        <v>否</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A27" s="2">
         <v>26</v>
       </c>
@@ -5391,8 +5854,12 @@
       <c r="E27">
         <v>100</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="F27" t="str">
+        <f t="shared" si="0"/>
+        <v>否</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A28" s="2">
         <v>27</v>
       </c>
@@ -5408,8 +5875,12 @@
       <c r="E28">
         <v>83</v>
       </c>
-    </row>
-    <row r="29" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="F28" t="str">
+        <f t="shared" si="0"/>
+        <v>否</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A29" s="2">
         <v>28</v>
       </c>
@@ -5425,8 +5896,12 @@
       <c r="E29">
         <v>100</v>
       </c>
-    </row>
-    <row r="30" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="F29" t="str">
+        <f t="shared" si="0"/>
+        <v>是</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A30" s="2">
         <v>29</v>
       </c>
@@ -5442,8 +5917,12 @@
       <c r="E30">
         <v>100</v>
       </c>
-    </row>
-    <row r="31" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="F30" t="str">
+        <f t="shared" si="0"/>
+        <v>否</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A31" s="2">
         <v>30</v>
       </c>
@@ -5459,8 +5938,12 @@
       <c r="E31">
         <v>98</v>
       </c>
-    </row>
-    <row r="32" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="F31" t="str">
+        <f t="shared" si="0"/>
+        <v>是</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A32" s="2">
         <v>31</v>
       </c>
@@ -5476,8 +5959,12 @@
       <c r="E32">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="F32" t="str">
+        <f t="shared" si="0"/>
+        <v>否</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A33" s="2">
         <v>32</v>
       </c>
@@ -5493,8 +5980,12 @@
       <c r="E33">
         <v>100</v>
       </c>
-    </row>
-    <row r="34" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="F33" t="str">
+        <f t="shared" si="0"/>
+        <v>是</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A34" s="2">
         <v>33</v>
       </c>
@@ -5510,8 +6001,12 @@
       <c r="E34">
         <v>97</v>
       </c>
-    </row>
-    <row r="35" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="F34" t="str">
+        <f t="shared" si="0"/>
+        <v>是</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A35" s="2">
         <v>34</v>
       </c>
@@ -5527,8 +6022,12 @@
       <c r="E35">
         <v>98</v>
       </c>
-    </row>
-    <row r="36" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="F35" t="str">
+        <f t="shared" si="0"/>
+        <v>否</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A36" s="2">
         <v>35</v>
       </c>
@@ -5544,8 +6043,12 @@
       <c r="E36">
         <v>97</v>
       </c>
-    </row>
-    <row r="37" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="F36" t="str">
+        <f t="shared" si="0"/>
+        <v>否</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A37" s="2">
         <v>36</v>
       </c>
@@ -5561,8 +6064,12 @@
       <c r="E37">
         <v>100</v>
       </c>
-    </row>
-    <row r="38" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="F37" t="str">
+        <f t="shared" si="0"/>
+        <v>是</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A38" s="2">
         <v>37</v>
       </c>
@@ -5578,8 +6085,12 @@
       <c r="E38">
         <v>100</v>
       </c>
-    </row>
-    <row r="39" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="F38" t="str">
+        <f t="shared" si="0"/>
+        <v>是</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A39" s="2">
         <v>38</v>
       </c>
@@ -5595,8 +6106,12 @@
       <c r="E39">
         <v>100</v>
       </c>
-    </row>
-    <row r="40" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="F39" t="str">
+        <f t="shared" si="0"/>
+        <v>是</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A40" s="2">
         <v>39</v>
       </c>
@@ -5612,8 +6127,12 @@
       <c r="E40">
         <v>100</v>
       </c>
-    </row>
-    <row r="41" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="F40" t="str">
+        <f t="shared" si="0"/>
+        <v>是</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A41" s="2">
         <v>40</v>
       </c>
@@ -5629,8 +6148,12 @@
       <c r="E41">
         <v>99</v>
       </c>
-    </row>
-    <row r="42" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="F41" t="str">
+        <f t="shared" si="0"/>
+        <v>是</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A42" s="2">
         <v>41</v>
       </c>
@@ -5645,6 +6168,10 @@
       </c>
       <c r="E42">
         <v>100</v>
+      </c>
+      <c r="F42" t="str">
+        <f t="shared" si="0"/>
+        <v>是</v>
       </c>
     </row>
   </sheetData>
@@ -5655,10 +6182,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3EE668DD-5D79-4876-BC32-A7BA66D2346B}">
-  <dimension ref="A1:E44"/>
+  <dimension ref="A1:F44"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="F45" sqref="F45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -5667,7 +6194,7 @@
     <col min="4" max="4" width="16.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5684,7 +6211,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -5700,8 +6227,12 @@
       <c r="E2">
         <v>100</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="F2" t="str">
+        <f>IF(AND(D2&gt;=70,E2&gt;=60),"是","否")</f>
+        <v>否</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -5717,8 +6248,12 @@
       <c r="E3">
         <v>100</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="F3" t="str">
+        <f t="shared" ref="F3:F45" si="0">IF(AND(D3&gt;=70,E3&gt;=60),"是","否")</f>
+        <v>是</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -5734,8 +6269,12 @@
       <c r="E4">
         <v>100</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="F4" t="str">
+        <f t="shared" si="0"/>
+        <v>是</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -5751,8 +6290,12 @@
       <c r="E5">
         <v>99</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="F5" t="str">
+        <f t="shared" si="0"/>
+        <v>是</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -5768,8 +6311,12 @@
       <c r="E6">
         <v>97</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="F6" t="str">
+        <f t="shared" si="0"/>
+        <v>是</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <v>6</v>
       </c>
@@ -5785,8 +6332,12 @@
       <c r="E7">
         <v>100</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="F7" t="str">
+        <f t="shared" si="0"/>
+        <v>是</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -5802,8 +6353,12 @@
       <c r="E8">
         <v>100</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="F8" t="str">
+        <f t="shared" si="0"/>
+        <v>是</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
         <v>8</v>
       </c>
@@ -5819,8 +6374,12 @@
       <c r="E9">
         <v>100</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="F9" t="str">
+        <f t="shared" si="0"/>
+        <v>是</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
         <v>9</v>
       </c>
@@ -5836,8 +6395,12 @@
       <c r="E10">
         <v>100</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="F10" t="str">
+        <f t="shared" si="0"/>
+        <v>是</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
         <v>10</v>
       </c>
@@ -5853,8 +6416,12 @@
       <c r="E11">
         <v>100</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="F11" t="str">
+        <f t="shared" si="0"/>
+        <v>是</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
         <v>11</v>
       </c>
@@ -5870,8 +6437,12 @@
       <c r="E12">
         <v>99</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="F12" t="str">
+        <f t="shared" si="0"/>
+        <v>是</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
         <v>12</v>
       </c>
@@ -5887,8 +6458,12 @@
       <c r="E13">
         <v>100</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="F13" t="str">
+        <f t="shared" si="0"/>
+        <v>是</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
         <v>13</v>
       </c>
@@ -5904,8 +6479,12 @@
       <c r="E14">
         <v>100</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="F14" t="str">
+        <f t="shared" si="0"/>
+        <v>是</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A15" s="2">
         <v>14</v>
       </c>
@@ -5921,8 +6500,12 @@
       <c r="E15">
         <v>100</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="F15" t="str">
+        <f t="shared" si="0"/>
+        <v>是</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A16" s="2">
         <v>15</v>
       </c>
@@ -5938,8 +6521,12 @@
       <c r="E16">
         <v>100</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="F16" t="str">
+        <f t="shared" si="0"/>
+        <v>是</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A17" s="2">
         <v>16</v>
       </c>
@@ -5955,8 +6542,12 @@
       <c r="E17">
         <v>100</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="F17" t="str">
+        <f t="shared" si="0"/>
+        <v>是</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A18" s="2">
         <v>17</v>
       </c>
@@ -5972,8 +6563,12 @@
       <c r="E18">
         <v>100</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="F18" t="str">
+        <f t="shared" si="0"/>
+        <v>是</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A19" s="2">
         <v>18</v>
       </c>
@@ -5989,8 +6584,12 @@
       <c r="E19">
         <v>100</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="F19" t="str">
+        <f t="shared" si="0"/>
+        <v>是</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A20" s="2">
         <v>19</v>
       </c>
@@ -6006,8 +6605,12 @@
       <c r="E20">
         <v>100</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="F20" t="str">
+        <f t="shared" si="0"/>
+        <v>是</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A21" s="2">
         <v>20</v>
       </c>
@@ -6023,8 +6626,12 @@
       <c r="E21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="F21" t="str">
+        <f t="shared" si="0"/>
+        <v>否</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A22" s="2">
         <v>21</v>
       </c>
@@ -6040,8 +6647,12 @@
       <c r="E22">
         <v>100</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="F22" t="str">
+        <f t="shared" si="0"/>
+        <v>是</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A23" s="2">
         <v>22</v>
       </c>
@@ -6057,8 +6668,12 @@
       <c r="E23">
         <v>100</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="F23" t="str">
+        <f t="shared" si="0"/>
+        <v>是</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A24" s="2">
         <v>23</v>
       </c>
@@ -6074,8 +6689,12 @@
       <c r="E24">
         <v>100</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="F24" t="str">
+        <f t="shared" si="0"/>
+        <v>是</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A25" s="2">
         <v>24</v>
       </c>
@@ -6091,8 +6710,12 @@
       <c r="E25">
         <v>100</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="F25" t="str">
+        <f t="shared" si="0"/>
+        <v>是</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A26" s="2">
         <v>25</v>
       </c>
@@ -6108,8 +6731,12 @@
       <c r="E26">
         <v>100</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="F26" t="str">
+        <f t="shared" si="0"/>
+        <v>是</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A27" s="2">
         <v>26</v>
       </c>
@@ -6125,8 +6752,12 @@
       <c r="E27">
         <v>100</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="F27" t="str">
+        <f t="shared" si="0"/>
+        <v>是</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A28" s="2">
         <v>27</v>
       </c>
@@ -6142,8 +6773,12 @@
       <c r="E28">
         <v>100</v>
       </c>
-    </row>
-    <row r="29" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="F28" t="str">
+        <f t="shared" si="0"/>
+        <v>是</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A29" s="2">
         <v>28</v>
       </c>
@@ -6159,8 +6794,12 @@
       <c r="E29">
         <v>97</v>
       </c>
-    </row>
-    <row r="30" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="F29" t="str">
+        <f t="shared" si="0"/>
+        <v>是</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A30" s="2">
         <v>29</v>
       </c>
@@ -6176,8 +6815,12 @@
       <c r="E30">
         <v>100</v>
       </c>
-    </row>
-    <row r="31" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="F30" t="str">
+        <f t="shared" si="0"/>
+        <v>是</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A31" s="2">
         <v>30</v>
       </c>
@@ -6193,8 +6836,12 @@
       <c r="E31">
         <v>100</v>
       </c>
-    </row>
-    <row r="32" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="F31" t="str">
+        <f t="shared" si="0"/>
+        <v>是</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A32" s="2">
         <v>31</v>
       </c>
@@ -6210,8 +6857,12 @@
       <c r="E32">
         <v>100</v>
       </c>
-    </row>
-    <row r="33" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="F32" t="str">
+        <f t="shared" si="0"/>
+        <v>是</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A33" s="2">
         <v>32</v>
       </c>
@@ -6227,8 +6878,12 @@
       <c r="E33">
         <v>100</v>
       </c>
-    </row>
-    <row r="34" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="F33" t="str">
+        <f t="shared" si="0"/>
+        <v>是</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A34" s="2">
         <v>33</v>
       </c>
@@ -6244,8 +6899,12 @@
       <c r="E34">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="F34" t="str">
+        <f t="shared" si="0"/>
+        <v>否</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A35" s="2">
         <v>34</v>
       </c>
@@ -6261,8 +6920,12 @@
       <c r="E35">
         <v>100</v>
       </c>
-    </row>
-    <row r="36" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="F35" t="str">
+        <f t="shared" si="0"/>
+        <v>是</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A36" s="2">
         <v>35</v>
       </c>
@@ -6278,8 +6941,12 @@
       <c r="E36">
         <v>100</v>
       </c>
-    </row>
-    <row r="37" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="F36" t="str">
+        <f t="shared" si="0"/>
+        <v>是</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A37" s="2">
         <v>36</v>
       </c>
@@ -6295,8 +6962,12 @@
       <c r="E37">
         <v>100</v>
       </c>
-    </row>
-    <row r="38" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="F37" t="str">
+        <f t="shared" si="0"/>
+        <v>是</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A38" s="2">
         <v>37</v>
       </c>
@@ -6312,8 +6983,12 @@
       <c r="E38">
         <v>100</v>
       </c>
-    </row>
-    <row r="39" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="F38" t="str">
+        <f t="shared" si="0"/>
+        <v>是</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A39" s="2">
         <v>38</v>
       </c>
@@ -6329,8 +7004,12 @@
       <c r="E39">
         <v>100</v>
       </c>
-    </row>
-    <row r="40" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="F39" t="str">
+        <f t="shared" si="0"/>
+        <v>是</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A40" s="2">
         <v>39</v>
       </c>
@@ -6346,8 +7025,12 @@
       <c r="E40">
         <v>99</v>
       </c>
-    </row>
-    <row r="41" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="F40" t="str">
+        <f t="shared" si="0"/>
+        <v>是</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A41" s="2">
         <v>40</v>
       </c>
@@ -6363,8 +7046,12 @@
       <c r="E41">
         <v>100</v>
       </c>
-    </row>
-    <row r="42" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="F41" t="str">
+        <f t="shared" si="0"/>
+        <v>是</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A42" s="2">
         <v>41</v>
       </c>
@@ -6380,8 +7067,12 @@
       <c r="E42">
         <v>100</v>
       </c>
-    </row>
-    <row r="43" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="F42" t="str">
+        <f t="shared" si="0"/>
+        <v>是</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A43" s="2">
         <v>42</v>
       </c>
@@ -6397,8 +7088,12 @@
       <c r="E43">
         <v>100</v>
       </c>
-    </row>
-    <row r="44" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="F43" t="str">
+        <f t="shared" si="0"/>
+        <v>是</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A44" s="2">
         <v>43</v>
       </c>
@@ -6413,6 +7108,10 @@
       </c>
       <c r="E44">
         <v>98</v>
+      </c>
+      <c r="F44" t="str">
+        <f t="shared" si="0"/>
+        <v>是</v>
       </c>
     </row>
   </sheetData>
@@ -6423,15 +7122,15 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE56D27B-734F-4B5D-9AB0-83045D05E1A7}">
-  <dimension ref="A1:E44"/>
+  <dimension ref="A1:F44"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="F45" sqref="F45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -6448,7 +7147,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -6464,8 +7163,12 @@
       <c r="E2">
         <v>98</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="F2" t="str">
+        <f>IF(AND(D2&gt;=70,E2&gt;=60),"是","否")</f>
+        <v>是</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -6481,8 +7184,12 @@
       <c r="E3">
         <v>98</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="F3" t="str">
+        <f t="shared" ref="F3:F44" si="0">IF(AND(D3&gt;=70,E3&gt;=60),"是","否")</f>
+        <v>是</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -6498,8 +7205,12 @@
       <c r="E4">
         <v>100</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="F4" t="str">
+        <f t="shared" si="0"/>
+        <v>是</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -6515,8 +7226,12 @@
       <c r="E5">
         <v>98</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="F5" t="str">
+        <f t="shared" si="0"/>
+        <v>是</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -6532,8 +7247,12 @@
       <c r="E6">
         <v>100</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="F6" t="str">
+        <f t="shared" si="0"/>
+        <v>是</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <v>6</v>
       </c>
@@ -6549,8 +7268,12 @@
       <c r="E7">
         <v>100</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="F7" t="str">
+        <f t="shared" si="0"/>
+        <v>否</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -6566,8 +7289,12 @@
       <c r="E8">
         <v>100</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="F8" t="str">
+        <f t="shared" si="0"/>
+        <v>是</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
         <v>8</v>
       </c>
@@ -6583,8 +7310,12 @@
       <c r="E9">
         <v>100</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="F9" t="str">
+        <f t="shared" si="0"/>
+        <v>是</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
         <v>9</v>
       </c>
@@ -6600,8 +7331,12 @@
       <c r="E10">
         <v>98</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="F10" t="str">
+        <f t="shared" si="0"/>
+        <v>是</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
         <v>10</v>
       </c>
@@ -6617,8 +7352,12 @@
       <c r="E11">
         <v>100</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="F11" t="str">
+        <f t="shared" si="0"/>
+        <v>是</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
         <v>11</v>
       </c>
@@ -6634,8 +7373,12 @@
       <c r="E12">
         <v>100</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="F12" t="str">
+        <f t="shared" si="0"/>
+        <v>是</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
         <v>12</v>
       </c>
@@ -6651,8 +7394,12 @@
       <c r="E13">
         <v>100</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="F13" t="str">
+        <f t="shared" si="0"/>
+        <v>是</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
         <v>13</v>
       </c>
@@ -6668,8 +7415,12 @@
       <c r="E14">
         <v>96</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="F14" t="str">
+        <f t="shared" si="0"/>
+        <v>是</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A15" s="2">
         <v>14</v>
       </c>
@@ -6685,8 +7436,12 @@
       <c r="E15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="F15" t="str">
+        <f t="shared" si="0"/>
+        <v>否</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A16" s="2">
         <v>15</v>
       </c>
@@ -6702,8 +7457,12 @@
       <c r="E16">
         <v>98</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="F16" t="str">
+        <f t="shared" si="0"/>
+        <v>是</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A17" s="2">
         <v>16</v>
       </c>
@@ -6719,8 +7478,12 @@
       <c r="E17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="F17" t="str">
+        <f t="shared" si="0"/>
+        <v>否</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A18" s="2">
         <v>17</v>
       </c>
@@ -6736,8 +7499,12 @@
       <c r="E18">
         <v>99</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="F18" t="str">
+        <f t="shared" si="0"/>
+        <v>否</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A19" s="2">
         <v>18</v>
       </c>
@@ -6753,8 +7520,12 @@
       <c r="E19">
         <v>100</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="F19" t="str">
+        <f t="shared" si="0"/>
+        <v>是</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A20" s="2">
         <v>19</v>
       </c>
@@ -6770,8 +7541,12 @@
       <c r="E20">
         <v>100</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="F20" t="str">
+        <f t="shared" si="0"/>
+        <v>是</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A21" s="2">
         <v>20</v>
       </c>
@@ -6787,8 +7562,12 @@
       <c r="E21">
         <v>100</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="F21" t="str">
+        <f t="shared" si="0"/>
+        <v>否</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A22" s="2">
         <v>21</v>
       </c>
@@ -6804,8 +7583,12 @@
       <c r="E22">
         <v>100</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="F22" t="str">
+        <f t="shared" si="0"/>
+        <v>是</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A23" s="2">
         <v>22</v>
       </c>
@@ -6821,8 +7604,12 @@
       <c r="E23">
         <v>100</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="F23" t="str">
+        <f t="shared" si="0"/>
+        <v>是</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A24" s="2">
         <v>23</v>
       </c>
@@ -6838,8 +7625,12 @@
       <c r="E24">
         <v>100</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="F24" t="str">
+        <f t="shared" si="0"/>
+        <v>是</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A25" s="2">
         <v>24</v>
       </c>
@@ -6855,8 +7646,12 @@
       <c r="E25">
         <v>100</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="F25" t="str">
+        <f t="shared" si="0"/>
+        <v>是</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A26" s="2">
         <v>25</v>
       </c>
@@ -6872,8 +7667,12 @@
       <c r="E26">
         <v>100</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="F26" t="str">
+        <f t="shared" si="0"/>
+        <v>是</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A27" s="2">
         <v>26</v>
       </c>
@@ -6889,8 +7688,12 @@
       <c r="E27">
         <v>100</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="F27" t="str">
+        <f t="shared" si="0"/>
+        <v>是</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A28" s="2">
         <v>27</v>
       </c>
@@ -6906,8 +7709,12 @@
       <c r="E28">
         <v>100</v>
       </c>
-    </row>
-    <row r="29" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="F28" t="str">
+        <f t="shared" si="0"/>
+        <v>是</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A29" s="2">
         <v>28</v>
       </c>
@@ -6923,8 +7730,12 @@
       <c r="E29">
         <v>100</v>
       </c>
-    </row>
-    <row r="30" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="F29" t="str">
+        <f t="shared" si="0"/>
+        <v>否</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A30" s="2">
         <v>29</v>
       </c>
@@ -6940,8 +7751,12 @@
       <c r="E30">
         <v>100</v>
       </c>
-    </row>
-    <row r="31" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="F30" t="str">
+        <f t="shared" si="0"/>
+        <v>是</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A31" s="2">
         <v>30</v>
       </c>
@@ -6957,8 +7772,12 @@
       <c r="E31">
         <v>100</v>
       </c>
-    </row>
-    <row r="32" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="F31" t="str">
+        <f t="shared" si="0"/>
+        <v>是</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A32" s="2">
         <v>31</v>
       </c>
@@ -6974,8 +7793,12 @@
       <c r="E32">
         <v>100</v>
       </c>
-    </row>
-    <row r="33" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="F32" t="str">
+        <f t="shared" si="0"/>
+        <v>是</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A33" s="2">
         <v>32</v>
       </c>
@@ -6991,8 +7814,12 @@
       <c r="E33">
         <v>100</v>
       </c>
-    </row>
-    <row r="34" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="F33" t="str">
+        <f t="shared" si="0"/>
+        <v>是</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A34" s="2">
         <v>33</v>
       </c>
@@ -7008,8 +7835,12 @@
       <c r="E34">
         <v>100</v>
       </c>
-    </row>
-    <row r="35" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="F34" t="str">
+        <f t="shared" si="0"/>
+        <v>是</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A35" s="2">
         <v>34</v>
       </c>
@@ -7025,8 +7856,12 @@
       <c r="E35">
         <v>100</v>
       </c>
-    </row>
-    <row r="36" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="F35" t="str">
+        <f t="shared" si="0"/>
+        <v>是</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A36" s="2">
         <v>35</v>
       </c>
@@ -7042,8 +7877,12 @@
       <c r="E36">
         <v>83</v>
       </c>
-    </row>
-    <row r="37" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="F36" t="str">
+        <f t="shared" si="0"/>
+        <v>否</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A37" s="2">
         <v>36</v>
       </c>
@@ -7059,8 +7898,12 @@
       <c r="E37">
         <v>72</v>
       </c>
-    </row>
-    <row r="38" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="F37" t="str">
+        <f t="shared" si="0"/>
+        <v>否</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A38" s="2">
         <v>37</v>
       </c>
@@ -7076,8 +7919,12 @@
       <c r="E38">
         <v>100</v>
       </c>
-    </row>
-    <row r="39" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="F38" t="str">
+        <f t="shared" si="0"/>
+        <v>是</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A39" s="2">
         <v>38</v>
       </c>
@@ -7093,8 +7940,12 @@
       <c r="E39">
         <v>98</v>
       </c>
-    </row>
-    <row r="40" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="F39" t="str">
+        <f t="shared" si="0"/>
+        <v>是</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A40" s="2">
         <v>39</v>
       </c>
@@ -7110,8 +7961,12 @@
       <c r="E40">
         <v>100</v>
       </c>
-    </row>
-    <row r="41" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="F40" t="str">
+        <f t="shared" si="0"/>
+        <v>是</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A41" s="2">
         <v>40</v>
       </c>
@@ -7127,8 +7982,12 @@
       <c r="E41">
         <v>100</v>
       </c>
-    </row>
-    <row r="42" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="F41" t="str">
+        <f>IF(AND(D41&gt;=70,E41&gt;=60),"是","否")</f>
+        <v>是</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A42" s="2">
         <v>41</v>
       </c>
@@ -7144,8 +8003,12 @@
       <c r="E42">
         <v>100</v>
       </c>
-    </row>
-    <row r="43" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="F42" t="str">
+        <f t="shared" si="0"/>
+        <v>是</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A43" s="2">
         <v>42</v>
       </c>
@@ -7161,8 +8024,12 @@
       <c r="E43">
         <v>100</v>
       </c>
-    </row>
-    <row r="44" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="F43" t="str">
+        <f t="shared" si="0"/>
+        <v>是</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A44" s="2">
         <v>43</v>
       </c>
@@ -7177,6 +8044,10 @@
       </c>
       <c r="E44">
         <v>98</v>
+      </c>
+      <c r="F44" t="str">
+        <f t="shared" si="0"/>
+        <v>是</v>
       </c>
     </row>
   </sheetData>
@@ -7187,15 +8058,18 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD44B2FF-4946-48DF-88CC-22B41258A543}">
-  <dimension ref="A1:E45"/>
+  <dimension ref="A1:F45"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:E45"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="F47" sqref="F47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="9" max="9" width="14.75" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -7212,7 +8086,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -7228,8 +8102,12 @@
       <c r="E2">
         <v>100</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="F2" t="str">
+        <f>IF(AND(D2&gt;=70,E2&gt;=60),"是","否")</f>
+        <v>是</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -7245,8 +8123,12 @@
       <c r="E3">
         <v>95</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="F3" t="str">
+        <f t="shared" ref="F3:F45" si="0">IF(AND(D3&gt;=70,E3&gt;=60),"是","否")</f>
+        <v>是</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -7262,8 +8144,12 @@
       <c r="E4">
         <v>99</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="F4" t="str">
+        <f t="shared" si="0"/>
+        <v>否</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -7279,8 +8165,12 @@
       <c r="E5">
         <v>97</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="F5" t="str">
+        <f t="shared" si="0"/>
+        <v>是</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -7296,8 +8186,12 @@
       <c r="E6">
         <v>100</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="F6" t="str">
+        <f t="shared" si="0"/>
+        <v>是</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <v>6</v>
       </c>
@@ -7313,8 +8207,12 @@
       <c r="E7">
         <v>96</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="F7" t="str">
+        <f t="shared" si="0"/>
+        <v>是</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -7330,8 +8228,12 @@
       <c r="E8">
         <v>100</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="F8" t="str">
+        <f t="shared" si="0"/>
+        <v>是</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
         <v>8</v>
       </c>
@@ -7347,8 +8249,12 @@
       <c r="E9">
         <v>99</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="F9" t="str">
+        <f t="shared" si="0"/>
+        <v>是</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
         <v>9</v>
       </c>
@@ -7364,8 +8270,12 @@
       <c r="E10">
         <v>100</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="F10" t="str">
+        <f t="shared" si="0"/>
+        <v>是</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
         <v>10</v>
       </c>
@@ -7381,8 +8291,12 @@
       <c r="E11">
         <v>100</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="F11" t="str">
+        <f t="shared" si="0"/>
+        <v>是</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
         <v>11</v>
       </c>
@@ -7398,8 +8312,12 @@
       <c r="E12">
         <v>100</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="F12" t="str">
+        <f t="shared" si="0"/>
+        <v>是</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
         <v>12</v>
       </c>
@@ -7415,8 +8333,12 @@
       <c r="E13">
         <v>100</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="F13" t="str">
+        <f t="shared" si="0"/>
+        <v>是</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
         <v>13</v>
       </c>
@@ -7432,8 +8354,12 @@
       <c r="E14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="F14" t="str">
+        <f t="shared" si="0"/>
+        <v>否</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A15" s="2">
         <v>14</v>
       </c>
@@ -7449,8 +8375,12 @@
       <c r="E15">
         <v>100</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="F15" t="str">
+        <f t="shared" si="0"/>
+        <v>是</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A16" s="2">
         <v>15</v>
       </c>
@@ -7466,8 +8396,12 @@
       <c r="E16">
         <v>100</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="F16" t="str">
+        <f t="shared" si="0"/>
+        <v>是</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A17" s="2">
         <v>16</v>
       </c>
@@ -7483,8 +8417,12 @@
       <c r="E17">
         <v>97</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="F17" t="str">
+        <f t="shared" si="0"/>
+        <v>是</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A18" s="2">
         <v>17</v>
       </c>
@@ -7500,8 +8438,12 @@
       <c r="E18">
         <v>98</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="F18" t="str">
+        <f t="shared" si="0"/>
+        <v>是</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A19" s="2">
         <v>18</v>
       </c>
@@ -7517,8 +8459,12 @@
       <c r="E19">
         <v>98</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="F19" t="str">
+        <f t="shared" si="0"/>
+        <v>是</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A20" s="2">
         <v>19</v>
       </c>
@@ -7534,8 +8480,12 @@
       <c r="E20">
         <v>98</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="F20" t="str">
+        <f t="shared" si="0"/>
+        <v>是</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A21" s="2">
         <v>20</v>
       </c>
@@ -7551,8 +8501,12 @@
       <c r="E21">
         <v>100</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="F21" t="str">
+        <f t="shared" si="0"/>
+        <v>是</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A22" s="2">
         <v>21</v>
       </c>
@@ -7568,8 +8522,12 @@
       <c r="E22">
         <v>100</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="F22" t="str">
+        <f t="shared" si="0"/>
+        <v>是</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A23" s="2">
         <v>22</v>
       </c>
@@ -7585,8 +8543,12 @@
       <c r="E23">
         <v>100</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="F23" t="str">
+        <f t="shared" si="0"/>
+        <v>是</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A24" s="2">
         <v>23</v>
       </c>
@@ -7602,8 +8564,12 @@
       <c r="E24">
         <v>100</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="F24" t="str">
+        <f t="shared" si="0"/>
+        <v>是</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A25" s="2">
         <v>24</v>
       </c>
@@ -7619,8 +8585,12 @@
       <c r="E25">
         <v>97</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="F25" t="str">
+        <f t="shared" si="0"/>
+        <v>是</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A26" s="2">
         <v>25</v>
       </c>
@@ -7636,8 +8606,12 @@
       <c r="E26">
         <v>100</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="F26" t="str">
+        <f t="shared" si="0"/>
+        <v>是</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A27" s="2">
         <v>26</v>
       </c>
@@ -7653,8 +8627,12 @@
       <c r="E27">
         <v>100</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="F27" t="str">
+        <f t="shared" si="0"/>
+        <v>是</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A28" s="2">
         <v>27</v>
       </c>
@@ -7670,8 +8648,12 @@
       <c r="E28">
         <v>91</v>
       </c>
-    </row>
-    <row r="29" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="F28" t="str">
+        <f t="shared" si="0"/>
+        <v>是</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A29" s="2">
         <v>28</v>
       </c>
@@ -7687,8 +8669,12 @@
       <c r="E29">
         <v>100</v>
       </c>
-    </row>
-    <row r="30" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="F29" t="str">
+        <f t="shared" si="0"/>
+        <v>是</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A30" s="2">
         <v>29</v>
       </c>
@@ -7704,8 +8690,12 @@
       <c r="E30">
         <v>100</v>
       </c>
-    </row>
-    <row r="31" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="F30" t="str">
+        <f t="shared" si="0"/>
+        <v>是</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A31" s="2">
         <v>30</v>
       </c>
@@ -7721,8 +8711,12 @@
       <c r="E31">
         <v>93</v>
       </c>
-    </row>
-    <row r="32" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="F31" t="str">
+        <f t="shared" si="0"/>
+        <v>否</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A32" s="2">
         <v>31</v>
       </c>
@@ -7738,8 +8732,12 @@
       <c r="E32">
         <v>100</v>
       </c>
-    </row>
-    <row r="33" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="F32" t="str">
+        <f t="shared" si="0"/>
+        <v>是</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A33" s="2">
         <v>32</v>
       </c>
@@ -7755,8 +8753,12 @@
       <c r="E33">
         <v>100</v>
       </c>
-    </row>
-    <row r="34" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="F33" t="str">
+        <f t="shared" si="0"/>
+        <v>是</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A34" s="2">
         <v>33</v>
       </c>
@@ -7772,8 +8774,12 @@
       <c r="E34">
         <v>100</v>
       </c>
-    </row>
-    <row r="35" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="F34" t="str">
+        <f t="shared" si="0"/>
+        <v>是</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A35" s="2">
         <v>34</v>
       </c>
@@ -7789,8 +8795,12 @@
       <c r="E35">
         <v>94</v>
       </c>
-    </row>
-    <row r="36" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="F35" t="str">
+        <f t="shared" si="0"/>
+        <v>是</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A36" s="2">
         <v>35</v>
       </c>
@@ -7806,8 +8816,12 @@
       <c r="E36">
         <v>100</v>
       </c>
-    </row>
-    <row r="37" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="F36" t="str">
+        <f t="shared" si="0"/>
+        <v>是</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A37" s="2">
         <v>36</v>
       </c>
@@ -7823,8 +8837,12 @@
       <c r="E37">
         <v>100</v>
       </c>
-    </row>
-    <row r="38" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="F37" t="str">
+        <f t="shared" si="0"/>
+        <v>是</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A38" s="2">
         <v>37</v>
       </c>
@@ -7840,8 +8858,12 @@
       <c r="E38">
         <v>100</v>
       </c>
-    </row>
-    <row r="39" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="F38" t="str">
+        <f t="shared" si="0"/>
+        <v>是</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A39" s="2">
         <v>38</v>
       </c>
@@ -7857,8 +8879,12 @@
       <c r="E39">
         <v>100</v>
       </c>
-    </row>
-    <row r="40" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="F39" t="str">
+        <f t="shared" si="0"/>
+        <v>是</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A40" s="2">
         <v>39</v>
       </c>
@@ -7874,8 +8900,12 @@
       <c r="E40">
         <v>100</v>
       </c>
-    </row>
-    <row r="41" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="F40" t="str">
+        <f t="shared" si="0"/>
+        <v>是</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A41" s="2">
         <v>40</v>
       </c>
@@ -7891,8 +8921,12 @@
       <c r="E41">
         <v>100</v>
       </c>
-    </row>
-    <row r="42" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="F41" t="str">
+        <f t="shared" si="0"/>
+        <v>是</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A42" s="2">
         <v>41</v>
       </c>
@@ -7908,8 +8942,12 @@
       <c r="E42">
         <v>100</v>
       </c>
-    </row>
-    <row r="43" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="F42" t="str">
+        <f t="shared" si="0"/>
+        <v>是</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A43" s="2">
         <v>42</v>
       </c>
@@ -7925,8 +8963,12 @@
       <c r="E43">
         <v>97</v>
       </c>
-    </row>
-    <row r="44" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="F43" t="str">
+        <f t="shared" si="0"/>
+        <v>是</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A44" s="2">
         <v>43</v>
       </c>
@@ -7942,8 +8984,12 @@
       <c r="E44">
         <v>100</v>
       </c>
-    </row>
-    <row r="45" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="F44" t="str">
+        <f t="shared" si="0"/>
+        <v>是</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A45" s="2">
         <v>44</v>
       </c>
@@ -7958,6 +9004,10 @@
       </c>
       <c r="E45">
         <v>100</v>
+      </c>
+      <c r="F45" t="str">
+        <f t="shared" si="0"/>
+        <v>是</v>
       </c>
     </row>
   </sheetData>
@@ -7968,15 +9018,15 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{311C6659-062A-423B-A3BD-CD5AE362DB8A}">
-  <dimension ref="A1:E46"/>
+  <dimension ref="A1:F46"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="F49" sqref="F49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -7993,7 +9043,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -8009,8 +9059,12 @@
       <c r="E2">
         <v>97</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="F2" t="str">
+        <f>IF(AND(D2&gt;=70,E2&gt;=60),"是","否")</f>
+        <v>否</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -8026,8 +9080,12 @@
       <c r="E3">
         <v>100</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="F3" t="str">
+        <f t="shared" ref="F3:F46" si="0">IF(AND(D3&gt;=70,E3&gt;=60),"是","否")</f>
+        <v>否</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -8043,8 +9101,12 @@
       <c r="E4">
         <v>89</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="F4" t="str">
+        <f t="shared" si="0"/>
+        <v>否</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -8060,8 +9122,12 @@
       <c r="E5">
         <v>100</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="F5" t="str">
+        <f t="shared" si="0"/>
+        <v>是</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -8077,8 +9143,12 @@
       <c r="E6">
         <v>97</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="F6" t="str">
+        <f t="shared" si="0"/>
+        <v>是</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <v>6</v>
       </c>
@@ -8094,8 +9164,12 @@
       <c r="E7">
         <v>97</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="F7" t="str">
+        <f t="shared" si="0"/>
+        <v>是</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -8111,8 +9185,12 @@
       <c r="E8">
         <v>100</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="F8" t="str">
+        <f t="shared" si="0"/>
+        <v>是</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
         <v>8</v>
       </c>
@@ -8128,8 +9206,12 @@
       <c r="E9">
         <v>100</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="F9" t="str">
+        <f t="shared" si="0"/>
+        <v>否</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
         <v>9</v>
       </c>
@@ -8145,8 +9227,12 @@
       <c r="E10">
         <v>100</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="F10" t="str">
+        <f t="shared" si="0"/>
+        <v>否</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
         <v>10</v>
       </c>
@@ -8162,8 +9248,12 @@
       <c r="E11">
         <v>100</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="F11" t="str">
+        <f t="shared" si="0"/>
+        <v>否</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
         <v>11</v>
       </c>
@@ -8179,8 +9269,12 @@
       <c r="E12">
         <v>100</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="F12" t="str">
+        <f t="shared" si="0"/>
+        <v>否</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
         <v>12</v>
       </c>
@@ -8196,8 +9290,12 @@
       <c r="E13">
         <v>100</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="F13" t="str">
+        <f t="shared" si="0"/>
+        <v>是</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
         <v>13</v>
       </c>
@@ -8213,8 +9311,12 @@
       <c r="E14">
         <v>100</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="F14" t="str">
+        <f t="shared" si="0"/>
+        <v>否</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A15" s="2">
         <v>14</v>
       </c>
@@ -8230,8 +9332,12 @@
       <c r="E15">
         <v>100</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="F15" t="str">
+        <f t="shared" si="0"/>
+        <v>是</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A16" s="2">
         <v>15</v>
       </c>
@@ -8247,8 +9353,12 @@
       <c r="E16">
         <v>100</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="F16" t="str">
+        <f t="shared" si="0"/>
+        <v>是</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A17" s="2">
         <v>16</v>
       </c>
@@ -8264,8 +9374,12 @@
       <c r="E17">
         <v>100</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="F17" t="str">
+        <f t="shared" si="0"/>
+        <v>是</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A18" s="2">
         <v>17</v>
       </c>
@@ -8281,8 +9395,12 @@
       <c r="E18">
         <v>97</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="F18" t="str">
+        <f t="shared" si="0"/>
+        <v>是</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A19" s="2">
         <v>18</v>
       </c>
@@ -8298,8 +9416,12 @@
       <c r="E19">
         <v>100</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="F19" t="str">
+        <f t="shared" si="0"/>
+        <v>是</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A20" s="2">
         <v>19</v>
       </c>
@@ -8315,8 +9437,12 @@
       <c r="E20">
         <v>100</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="F20" t="str">
+        <f t="shared" si="0"/>
+        <v>是</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A21" s="2">
         <v>20</v>
       </c>
@@ -8332,8 +9458,12 @@
       <c r="E21">
         <v>99</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="F21" t="str">
+        <f t="shared" si="0"/>
+        <v>是</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A22" s="2">
         <v>21</v>
       </c>
@@ -8349,8 +9479,12 @@
       <c r="E22">
         <v>100</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="F22" t="str">
+        <f t="shared" si="0"/>
+        <v>是</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A23" s="2">
         <v>22</v>
       </c>
@@ -8366,8 +9500,12 @@
       <c r="E23">
         <v>100</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="F23" t="str">
+        <f t="shared" si="0"/>
+        <v>是</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A24" s="2">
         <v>23</v>
       </c>
@@ -8383,8 +9521,12 @@
       <c r="E24">
         <v>100</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="F24" t="str">
+        <f t="shared" si="0"/>
+        <v>是</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A25" s="2">
         <v>24</v>
       </c>
@@ -8400,8 +9542,12 @@
       <c r="E25">
         <v>100</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="F25" t="str">
+        <f t="shared" si="0"/>
+        <v>是</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A26" s="2">
         <v>25</v>
       </c>
@@ -8417,8 +9563,12 @@
       <c r="E26">
         <v>93</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="F26" t="str">
+        <f t="shared" si="0"/>
+        <v>是</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A27" s="2">
         <v>26</v>
       </c>
@@ -8434,8 +9584,12 @@
       <c r="E27">
         <v>99</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="F27" t="str">
+        <f t="shared" si="0"/>
+        <v>是</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A28" s="2">
         <v>27</v>
       </c>
@@ -8451,8 +9605,12 @@
       <c r="E28">
         <v>100</v>
       </c>
-    </row>
-    <row r="29" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="F28" t="str">
+        <f t="shared" si="0"/>
+        <v>是</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A29" s="2">
         <v>28</v>
       </c>
@@ -8468,8 +9626,12 @@
       <c r="E29">
         <v>99</v>
       </c>
-    </row>
-    <row r="30" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="F29" t="str">
+        <f t="shared" si="0"/>
+        <v>是</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A30" s="2">
         <v>29</v>
       </c>
@@ -8485,8 +9647,12 @@
       <c r="E30">
         <v>100</v>
       </c>
-    </row>
-    <row r="31" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="F30" t="str">
+        <f t="shared" si="0"/>
+        <v>是</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A31" s="2">
         <v>30</v>
       </c>
@@ -8502,8 +9668,12 @@
       <c r="E31">
         <v>100</v>
       </c>
-    </row>
-    <row r="32" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="F31" t="str">
+        <f t="shared" si="0"/>
+        <v>是</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A32" s="2">
         <v>31</v>
       </c>
@@ -8519,8 +9689,12 @@
       <c r="E32">
         <v>100</v>
       </c>
-    </row>
-    <row r="33" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="F32" t="str">
+        <f t="shared" si="0"/>
+        <v>是</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A33" s="2">
         <v>32</v>
       </c>
@@ -8536,8 +9710,12 @@
       <c r="E33">
         <v>100</v>
       </c>
-    </row>
-    <row r="34" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="F33" t="str">
+        <f t="shared" si="0"/>
+        <v>是</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A34" s="2">
         <v>33</v>
       </c>
@@ -8553,8 +9731,12 @@
       <c r="E34">
         <v>100</v>
       </c>
-    </row>
-    <row r="35" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="F34" t="str">
+        <f t="shared" si="0"/>
+        <v>是</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A35" s="2">
         <v>34</v>
       </c>
@@ -8570,8 +9752,12 @@
       <c r="E35">
         <v>90</v>
       </c>
-    </row>
-    <row r="36" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="F35" t="str">
+        <f t="shared" si="0"/>
+        <v>是</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A36" s="2">
         <v>35</v>
       </c>
@@ -8587,8 +9773,12 @@
       <c r="E36">
         <v>100</v>
       </c>
-    </row>
-    <row r="37" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="F36" t="str">
+        <f t="shared" si="0"/>
+        <v>是</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A37" s="2">
         <v>36</v>
       </c>
@@ -8604,8 +9794,12 @@
       <c r="E37">
         <v>99</v>
       </c>
-    </row>
-    <row r="38" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="F37" t="str">
+        <f t="shared" si="0"/>
+        <v>是</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A38" s="2">
         <v>37</v>
       </c>
@@ -8621,8 +9815,12 @@
       <c r="E38">
         <v>100</v>
       </c>
-    </row>
-    <row r="39" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="F38" t="str">
+        <f t="shared" si="0"/>
+        <v>是</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A39" s="2">
         <v>38</v>
       </c>
@@ -8638,8 +9836,12 @@
       <c r="E39">
         <v>100</v>
       </c>
-    </row>
-    <row r="40" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="F39" t="str">
+        <f t="shared" si="0"/>
+        <v>是</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A40" s="2">
         <v>39</v>
       </c>
@@ -8655,8 +9857,12 @@
       <c r="E40">
         <v>100</v>
       </c>
-    </row>
-    <row r="41" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="F40" t="str">
+        <f t="shared" si="0"/>
+        <v>是</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A41" s="2">
         <v>40</v>
       </c>
@@ -8672,8 +9878,12 @@
       <c r="E41">
         <v>100</v>
       </c>
-    </row>
-    <row r="42" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="F41" t="str">
+        <f t="shared" si="0"/>
+        <v>否</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A42" s="2">
         <v>41</v>
       </c>
@@ -8689,8 +9899,12 @@
       <c r="E42">
         <v>94</v>
       </c>
-    </row>
-    <row r="43" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="F42" t="str">
+        <f t="shared" si="0"/>
+        <v>否</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A43" s="2">
         <v>42</v>
       </c>
@@ -8706,8 +9920,12 @@
       <c r="E43">
         <v>100</v>
       </c>
-    </row>
-    <row r="44" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="F43" t="str">
+        <f t="shared" si="0"/>
+        <v>是</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A44" s="2">
         <v>43</v>
       </c>
@@ -8723,8 +9941,12 @@
       <c r="E44">
         <v>100</v>
       </c>
-    </row>
-    <row r="45" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="F44" t="str">
+        <f t="shared" si="0"/>
+        <v>是</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A45" s="2">
         <v>44</v>
       </c>
@@ -8740,8 +9962,12 @@
       <c r="E45">
         <v>87</v>
       </c>
-    </row>
-    <row r="46" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="F45" t="str">
+        <f t="shared" si="0"/>
+        <v>是</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A46" s="2">
         <v>45</v>
       </c>
@@ -8756,6 +9982,10 @@
       </c>
       <c r="E46">
         <v>91</v>
+      </c>
+      <c r="F46" t="str">
+        <f t="shared" si="0"/>
+        <v>是</v>
       </c>
     </row>
   </sheetData>
@@ -8766,15 +9996,18 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE5DE9F3-0959-47B4-9D12-5B6F7386F676}">
-  <dimension ref="A1:E45"/>
+  <dimension ref="A1:F45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="F49" sqref="F49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="3" width="14.875" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -8791,7 +10024,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -8807,8 +10040,12 @@
       <c r="E2">
         <v>96</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="F2" t="str">
+        <f>IF(AND(D2&gt;=70,E2&gt;=60),"是","否")</f>
+        <v>否</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -8824,8 +10061,12 @@
       <c r="E3">
         <v>99</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="F3" t="str">
+        <f t="shared" ref="F3:F45" si="0">IF(AND(D3&gt;=70,E3&gt;=60),"是","否")</f>
+        <v>是</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -8841,8 +10082,12 @@
       <c r="E4">
         <v>100</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="F4" t="str">
+        <f t="shared" si="0"/>
+        <v>是</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -8858,8 +10103,12 @@
       <c r="E5">
         <v>100</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="F5" t="str">
+        <f t="shared" si="0"/>
+        <v>是</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -8875,8 +10124,12 @@
       <c r="E6">
         <v>98</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="F6" t="str">
+        <f t="shared" si="0"/>
+        <v>否</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <v>6</v>
       </c>
@@ -8892,8 +10145,12 @@
       <c r="E7">
         <v>100</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="F7" t="str">
+        <f t="shared" si="0"/>
+        <v>是</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -8909,8 +10166,12 @@
       <c r="E8">
         <v>92</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="F8" t="str">
+        <f t="shared" si="0"/>
+        <v>是</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
         <v>8</v>
       </c>
@@ -8926,8 +10187,12 @@
       <c r="E9">
         <v>91</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="F9" t="str">
+        <f t="shared" si="0"/>
+        <v>是</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
         <v>9</v>
       </c>
@@ -8943,8 +10208,12 @@
       <c r="E10">
         <v>100</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="F10" t="str">
+        <f t="shared" si="0"/>
+        <v>是</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
         <v>10</v>
       </c>
@@ -8960,8 +10229,12 @@
       <c r="E11">
         <v>100</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="F11" t="str">
+        <f t="shared" si="0"/>
+        <v>是</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
         <v>11</v>
       </c>
@@ -8977,8 +10250,12 @@
       <c r="E12">
         <v>100</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="F12" t="str">
+        <f t="shared" si="0"/>
+        <v>是</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
         <v>12</v>
       </c>
@@ -8994,8 +10271,12 @@
       <c r="E13">
         <v>92</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="F13" t="str">
+        <f t="shared" si="0"/>
+        <v>是</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
         <v>13</v>
       </c>
@@ -9011,8 +10292,12 @@
       <c r="E14">
         <v>100</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="F14" t="str">
+        <f t="shared" si="0"/>
+        <v>是</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A15" s="2">
         <v>14</v>
       </c>
@@ -9028,8 +10313,12 @@
       <c r="E15">
         <v>100</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="F15" t="str">
+        <f t="shared" si="0"/>
+        <v>否</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A16" s="2">
         <v>15</v>
       </c>
@@ -9045,8 +10334,12 @@
       <c r="E16">
         <v>100</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="F16" t="str">
+        <f t="shared" si="0"/>
+        <v>是</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A17" s="2">
         <v>16</v>
       </c>
@@ -9062,8 +10355,12 @@
       <c r="E17">
         <v>100</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="F17" t="str">
+        <f t="shared" si="0"/>
+        <v>是</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A18" s="2">
         <v>17</v>
       </c>
@@ -9079,8 +10376,12 @@
       <c r="E18">
         <v>100</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="F18" t="str">
+        <f t="shared" si="0"/>
+        <v>是</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A19" s="2">
         <v>18</v>
       </c>
@@ -9096,8 +10397,12 @@
       <c r="E19">
         <v>100</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="F19" t="str">
+        <f t="shared" si="0"/>
+        <v>是</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A20" s="2">
         <v>19</v>
       </c>
@@ -9113,8 +10418,12 @@
       <c r="E20">
         <v>100</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="F20" t="str">
+        <f t="shared" si="0"/>
+        <v>是</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A21" s="2">
         <v>20</v>
       </c>
@@ -9130,8 +10439,12 @@
       <c r="E21">
         <v>98</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="F21" t="str">
+        <f t="shared" si="0"/>
+        <v>是</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A22" s="2">
         <v>21</v>
       </c>
@@ -9147,8 +10460,12 @@
       <c r="E22">
         <v>95</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="F22" t="str">
+        <f t="shared" si="0"/>
+        <v>是</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A23" s="2">
         <v>22</v>
       </c>
@@ -9164,8 +10481,12 @@
       <c r="E23">
         <v>100</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="F23" t="str">
+        <f t="shared" si="0"/>
+        <v>是</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A24" s="2">
         <v>23</v>
       </c>
@@ -9181,8 +10502,12 @@
       <c r="E24">
         <v>100</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="F24" t="str">
+        <f t="shared" si="0"/>
+        <v>否</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A25" s="2">
         <v>24</v>
       </c>
@@ -9198,8 +10523,12 @@
       <c r="E25">
         <v>100</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="F25" t="str">
+        <f t="shared" si="0"/>
+        <v>是</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A26" s="2">
         <v>25</v>
       </c>
@@ -9215,8 +10544,12 @@
       <c r="E26">
         <v>100</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="F26" t="str">
+        <f t="shared" si="0"/>
+        <v>是</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A27" s="2">
         <v>26</v>
       </c>
@@ -9232,8 +10565,12 @@
       <c r="E27">
         <v>100</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="F27" t="str">
+        <f t="shared" si="0"/>
+        <v>是</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A28" s="2">
         <v>27</v>
       </c>
@@ -9249,8 +10586,12 @@
       <c r="E28">
         <v>99</v>
       </c>
-    </row>
-    <row r="29" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="F28" t="str">
+        <f t="shared" si="0"/>
+        <v>是</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A29" s="2">
         <v>28</v>
       </c>
@@ -9266,8 +10607,12 @@
       <c r="E29">
         <v>85</v>
       </c>
-    </row>
-    <row r="30" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="F29" t="str">
+        <f t="shared" si="0"/>
+        <v>是</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A30" s="2">
         <v>29</v>
       </c>
@@ -9283,8 +10628,12 @@
       <c r="E30">
         <v>100</v>
       </c>
-    </row>
-    <row r="31" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="F30" t="str">
+        <f t="shared" si="0"/>
+        <v>是</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A31" s="2">
         <v>30</v>
       </c>
@@ -9300,8 +10649,12 @@
       <c r="E31">
         <v>100</v>
       </c>
-    </row>
-    <row r="32" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="F31" t="str">
+        <f t="shared" si="0"/>
+        <v>是</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A32" s="2">
         <v>31</v>
       </c>
@@ -9317,8 +10670,12 @@
       <c r="E32">
         <v>100</v>
       </c>
-    </row>
-    <row r="33" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="F32" t="str">
+        <f t="shared" si="0"/>
+        <v>是</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A33" s="2">
         <v>32</v>
       </c>
@@ -9334,8 +10691,12 @@
       <c r="E33">
         <v>98</v>
       </c>
-    </row>
-    <row r="34" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="F33" t="str">
+        <f t="shared" si="0"/>
+        <v>是</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A34" s="2">
         <v>33</v>
       </c>
@@ -9351,8 +10712,12 @@
       <c r="E34">
         <v>100</v>
       </c>
-    </row>
-    <row r="35" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="F34" t="str">
+        <f t="shared" si="0"/>
+        <v>是</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A35" s="2">
         <v>34</v>
       </c>
@@ -9368,8 +10733,12 @@
       <c r="E35">
         <v>98</v>
       </c>
-    </row>
-    <row r="36" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="F35" t="str">
+        <f t="shared" si="0"/>
+        <v>是</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A36" s="2">
         <v>35</v>
       </c>
@@ -9385,8 +10754,12 @@
       <c r="E36">
         <v>100</v>
       </c>
-    </row>
-    <row r="37" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="F36" t="str">
+        <f t="shared" si="0"/>
+        <v>是</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A37" s="2">
         <v>36</v>
       </c>
@@ -9402,8 +10775,12 @@
       <c r="E37">
         <v>99</v>
       </c>
-    </row>
-    <row r="38" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="F37" t="str">
+        <f t="shared" si="0"/>
+        <v>是</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A38" s="2">
         <v>37</v>
       </c>
@@ -9419,8 +10796,12 @@
       <c r="E38">
         <v>100</v>
       </c>
-    </row>
-    <row r="39" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="F38" t="str">
+        <f t="shared" si="0"/>
+        <v>是</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A39" s="2">
         <v>38</v>
       </c>
@@ -9436,8 +10817,12 @@
       <c r="E39">
         <v>96</v>
       </c>
-    </row>
-    <row r="40" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="F39" t="str">
+        <f t="shared" si="0"/>
+        <v>是</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A40" s="2">
         <v>39</v>
       </c>
@@ -9453,8 +10838,12 @@
       <c r="E40">
         <v>97</v>
       </c>
-    </row>
-    <row r="41" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="F40" t="str">
+        <f t="shared" si="0"/>
+        <v>否</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A41" s="2">
         <v>40</v>
       </c>
@@ -9470,8 +10859,12 @@
       <c r="E41">
         <v>76</v>
       </c>
-    </row>
-    <row r="42" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="F41" t="str">
+        <f t="shared" si="0"/>
+        <v>否</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A42" s="2">
         <v>41</v>
       </c>
@@ -9487,8 +10880,12 @@
       <c r="E42">
         <v>100</v>
       </c>
-    </row>
-    <row r="43" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="F42" t="str">
+        <f t="shared" si="0"/>
+        <v>是</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A43" s="2">
         <v>42</v>
       </c>
@@ -9504,8 +10901,12 @@
       <c r="E43">
         <v>100</v>
       </c>
-    </row>
-    <row r="44" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="F43" t="str">
+        <f t="shared" si="0"/>
+        <v>是</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A44" s="2">
         <v>43</v>
       </c>
@@ -9521,8 +10922,12 @@
       <c r="E44">
         <v>100</v>
       </c>
-    </row>
-    <row r="45" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="F44" t="str">
+        <f t="shared" si="0"/>
+        <v>否</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A45" s="2">
         <v>44</v>
       </c>
@@ -9537,6 +10942,10 @@
       </c>
       <c r="E45">
         <v>98</v>
+      </c>
+      <c r="F45" t="str">
+        <f t="shared" si="0"/>
+        <v>是</v>
       </c>
     </row>
   </sheetData>
@@ -9547,15 +10956,15 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F359FB22-2DB5-4458-B5B1-8B8ED96140FB}">
-  <dimension ref="A1:E45"/>
+  <dimension ref="A1:F45"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="B36" sqref="B36:F36"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="F50" sqref="F50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -9572,7 +10981,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -9588,8 +10997,12 @@
       <c r="E2">
         <v>83</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="F2" t="str">
+        <f>IF(AND(D2&gt;=70,E2&gt;=60),"是","否")</f>
+        <v>是</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -9605,8 +11018,12 @@
       <c r="E3">
         <v>97</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="F3" t="str">
+        <f t="shared" ref="F3:F45" si="0">IF(AND(D3&gt;=70,E3&gt;=60),"是","否")</f>
+        <v>是</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -9622,8 +11039,12 @@
       <c r="E4">
         <v>100</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="F4" t="str">
+        <f t="shared" si="0"/>
+        <v>是</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -9639,8 +11060,12 @@
       <c r="E5">
         <v>100</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="F5" t="str">
+        <f t="shared" si="0"/>
+        <v>是</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -9656,8 +11081,12 @@
       <c r="E6">
         <v>100</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="F6" t="str">
+        <f t="shared" si="0"/>
+        <v>是</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <v>6</v>
       </c>
@@ -9673,8 +11102,12 @@
       <c r="E7">
         <v>100</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="F7" t="str">
+        <f t="shared" si="0"/>
+        <v>是</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -9690,8 +11123,12 @@
       <c r="E8">
         <v>98</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="F8" t="str">
+        <f t="shared" si="0"/>
+        <v>是</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
         <v>8</v>
       </c>
@@ -9707,8 +11144,12 @@
       <c r="E9">
         <v>98</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="F9" t="str">
+        <f t="shared" si="0"/>
+        <v>是</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
         <v>9</v>
       </c>
@@ -9724,8 +11165,12 @@
       <c r="E10">
         <v>100</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="F10" t="str">
+        <f t="shared" si="0"/>
+        <v>否</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
         <v>10</v>
       </c>
@@ -9741,8 +11186,12 @@
       <c r="E11">
         <v>90</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="F11" t="str">
+        <f t="shared" si="0"/>
+        <v>是</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
         <v>11</v>
       </c>
@@ -9758,8 +11207,12 @@
       <c r="E12">
         <v>100</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="F12" t="str">
+        <f t="shared" si="0"/>
+        <v>是</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
         <v>12</v>
       </c>
@@ -9775,8 +11228,12 @@
       <c r="E13">
         <v>100</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="F13" t="str">
+        <f t="shared" si="0"/>
+        <v>是</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
         <v>13</v>
       </c>
@@ -9792,8 +11249,12 @@
       <c r="E14">
         <v>100</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="F14" t="str">
+        <f t="shared" si="0"/>
+        <v>是</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A15" s="2">
         <v>14</v>
       </c>
@@ -9809,8 +11270,12 @@
       <c r="E15">
         <v>100</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="F15" t="str">
+        <f t="shared" si="0"/>
+        <v>是</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A16" s="2">
         <v>15</v>
       </c>
@@ -9826,8 +11291,12 @@
       <c r="E16">
         <v>100</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="F16" t="str">
+        <f t="shared" si="0"/>
+        <v>是</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A17" s="2">
         <v>16</v>
       </c>
@@ -9843,8 +11312,12 @@
       <c r="E17">
         <v>99</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="F17" t="str">
+        <f t="shared" si="0"/>
+        <v>是</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A18" s="2">
         <v>17</v>
       </c>
@@ -9860,8 +11333,12 @@
       <c r="E18">
         <v>91</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="F18" t="str">
+        <f t="shared" si="0"/>
+        <v>是</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A19" s="2">
         <v>18</v>
       </c>
@@ -9877,8 +11354,12 @@
       <c r="E19">
         <v>100</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="F19" t="str">
+        <f t="shared" si="0"/>
+        <v>是</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A20" s="2">
         <v>19</v>
       </c>
@@ -9894,8 +11375,12 @@
       <c r="E20">
         <v>100</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="F20" t="str">
+        <f t="shared" si="0"/>
+        <v>否</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A21" s="2">
         <v>20</v>
       </c>
@@ -9911,8 +11396,12 @@
       <c r="E21">
         <v>98</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="F21" t="str">
+        <f t="shared" si="0"/>
+        <v>是</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A22" s="2">
         <v>21</v>
       </c>
@@ -9928,8 +11417,12 @@
       <c r="E22">
         <v>100</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="F22" t="str">
+        <f t="shared" si="0"/>
+        <v>是</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A23" s="2">
         <v>22</v>
       </c>
@@ -9945,8 +11438,12 @@
       <c r="E23">
         <v>100</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="F23" t="str">
+        <f t="shared" si="0"/>
+        <v>是</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A24" s="2">
         <v>23</v>
       </c>
@@ -9962,8 +11459,12 @@
       <c r="E24">
         <v>100</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="F24" t="str">
+        <f t="shared" si="0"/>
+        <v>是</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A25" s="2">
         <v>24</v>
       </c>
@@ -9979,8 +11480,12 @@
       <c r="E25">
         <v>100</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="F25" t="str">
+        <f t="shared" si="0"/>
+        <v>是</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A26" s="2">
         <v>25</v>
       </c>
@@ -9996,8 +11501,12 @@
       <c r="E26">
         <v>100</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="F26" t="str">
+        <f t="shared" si="0"/>
+        <v>是</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A27" s="2">
         <v>26</v>
       </c>
@@ -10013,8 +11522,12 @@
       <c r="E27">
         <v>100</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="F27" t="str">
+        <f t="shared" si="0"/>
+        <v>是</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A28" s="2">
         <v>27</v>
       </c>
@@ -10030,8 +11543,12 @@
       <c r="E28">
         <v>100</v>
       </c>
-    </row>
-    <row r="29" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="F28" t="str">
+        <f t="shared" si="0"/>
+        <v>是</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A29" s="2">
         <v>28</v>
       </c>
@@ -10047,8 +11564,12 @@
       <c r="E29">
         <v>100</v>
       </c>
-    </row>
-    <row r="30" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="F29" t="str">
+        <f t="shared" si="0"/>
+        <v>是</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A30" s="2">
         <v>29</v>
       </c>
@@ -10064,8 +11585,12 @@
       <c r="E30">
         <v>100</v>
       </c>
-    </row>
-    <row r="31" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="F30" t="str">
+        <f t="shared" si="0"/>
+        <v>是</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A31" s="2">
         <v>30</v>
       </c>
@@ -10081,8 +11606,12 @@
       <c r="E31">
         <v>100</v>
       </c>
-    </row>
-    <row r="32" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="F31" t="str">
+        <f t="shared" si="0"/>
+        <v>是</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A32" s="2">
         <v>31</v>
       </c>
@@ -10098,8 +11627,12 @@
       <c r="E32">
         <v>100</v>
       </c>
-    </row>
-    <row r="33" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="F32" t="str">
+        <f t="shared" si="0"/>
+        <v>是</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A33" s="2">
         <v>32</v>
       </c>
@@ -10115,8 +11648,12 @@
       <c r="E33">
         <v>100</v>
       </c>
-    </row>
-    <row r="34" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="F33" t="str">
+        <f t="shared" si="0"/>
+        <v>是</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A34" s="2">
         <v>33</v>
       </c>
@@ -10132,8 +11669,12 @@
       <c r="E34">
         <v>86</v>
       </c>
-    </row>
-    <row r="35" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="F34" t="str">
+        <f t="shared" si="0"/>
+        <v>是</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A35" s="2">
         <v>34</v>
       </c>
@@ -10149,8 +11690,12 @@
       <c r="E35">
         <v>97</v>
       </c>
-    </row>
-    <row r="36" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="F35" t="str">
+        <f t="shared" si="0"/>
+        <v>是</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A36" s="2">
         <v>35</v>
       </c>
@@ -10166,8 +11711,12 @@
       <c r="E36">
         <v>100</v>
       </c>
-    </row>
-    <row r="37" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="F36" t="str">
+        <f t="shared" si="0"/>
+        <v>是</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A37" s="2">
         <v>36</v>
       </c>
@@ -10183,8 +11732,12 @@
       <c r="E37">
         <v>100</v>
       </c>
-    </row>
-    <row r="38" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="F37" t="str">
+        <f t="shared" si="0"/>
+        <v>是</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A38" s="2">
         <v>37</v>
       </c>
@@ -10200,8 +11753,12 @@
       <c r="E38">
         <v>100</v>
       </c>
-    </row>
-    <row r="39" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="F38" t="str">
+        <f t="shared" si="0"/>
+        <v>是</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A39" s="2">
         <v>38</v>
       </c>
@@ -10217,8 +11774,12 @@
       <c r="E39">
         <v>100</v>
       </c>
-    </row>
-    <row r="40" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="F39" t="str">
+        <f t="shared" si="0"/>
+        <v>是</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A40" s="2">
         <v>39</v>
       </c>
@@ -10234,8 +11795,12 @@
       <c r="E40">
         <v>100</v>
       </c>
-    </row>
-    <row r="41" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="F40" t="str">
+        <f t="shared" si="0"/>
+        <v>是</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A41" s="2">
         <v>40</v>
       </c>
@@ -10251,8 +11816,12 @@
       <c r="E41">
         <v>100</v>
       </c>
-    </row>
-    <row r="42" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="F41" t="str">
+        <f t="shared" si="0"/>
+        <v>否</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A42" s="2">
         <v>41</v>
       </c>
@@ -10268,8 +11837,12 @@
       <c r="E42">
         <v>98</v>
       </c>
-    </row>
-    <row r="43" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="F42" t="str">
+        <f t="shared" si="0"/>
+        <v>是</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A43" s="2">
         <v>42</v>
       </c>
@@ -10285,8 +11858,12 @@
       <c r="E43">
         <v>100</v>
       </c>
-    </row>
-    <row r="44" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="F43" t="str">
+        <f t="shared" si="0"/>
+        <v>是</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A44" s="2">
         <v>43</v>
       </c>
@@ -10302,8 +11879,12 @@
       <c r="E44">
         <v>97</v>
       </c>
-    </row>
-    <row r="45" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="F44" t="str">
+        <f t="shared" si="0"/>
+        <v>是</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A45" s="2">
         <v>44</v>
       </c>
@@ -10318,6 +11899,10 @@
       </c>
       <c r="E45">
         <v>100</v>
+      </c>
+      <c r="F45" t="str">
+        <f t="shared" si="0"/>
+        <v>是</v>
       </c>
     </row>
   </sheetData>
@@ -10328,15 +11913,15 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BF48712-991F-43C9-94B1-21C3744654A5}">
-  <dimension ref="A1:E44"/>
+  <dimension ref="A1:F44"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:E44"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="F48" sqref="F48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -10353,7 +11938,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -10369,8 +11954,12 @@
       <c r="E2">
         <v>100</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="F2" t="str">
+        <f>IF(AND(D2&gt;=70,E2&gt;=60),"是","否")</f>
+        <v>否</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -10386,8 +11975,12 @@
       <c r="E3">
         <v>100</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="F3" t="str">
+        <f t="shared" ref="F3:F44" si="0">IF(AND(D3&gt;=70,E3&gt;=60),"是","否")</f>
+        <v>否</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -10403,8 +11996,12 @@
       <c r="E4">
         <v>65</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="F4" t="str">
+        <f t="shared" si="0"/>
+        <v>否</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -10420,8 +12017,12 @@
       <c r="E5">
         <v>100</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="F5" t="str">
+        <f t="shared" si="0"/>
+        <v>是</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -10437,8 +12038,12 @@
       <c r="E6">
         <v>100</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="F6" t="str">
+        <f t="shared" si="0"/>
+        <v>是</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <v>6</v>
       </c>
@@ -10454,8 +12059,12 @@
       <c r="E7">
         <v>99</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="F7" t="str">
+        <f t="shared" si="0"/>
+        <v>否</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -10471,8 +12080,12 @@
       <c r="E8">
         <v>100</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="F8" t="str">
+        <f t="shared" si="0"/>
+        <v>是</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
         <v>8</v>
       </c>
@@ -10488,8 +12101,12 @@
       <c r="E9">
         <v>100</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="F9" t="str">
+        <f t="shared" si="0"/>
+        <v>是</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
         <v>9</v>
       </c>
@@ -10505,8 +12122,12 @@
       <c r="E10">
         <v>100</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="F10" t="str">
+        <f t="shared" si="0"/>
+        <v>是</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
         <v>10</v>
       </c>
@@ -10522,8 +12143,12 @@
       <c r="E11">
         <v>100</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="F11" t="str">
+        <f t="shared" si="0"/>
+        <v>是</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
         <v>11</v>
       </c>
@@ -10539,8 +12164,12 @@
       <c r="E12">
         <v>100</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="F12" t="str">
+        <f t="shared" si="0"/>
+        <v>否</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
         <v>12</v>
       </c>
@@ -10556,8 +12185,12 @@
       <c r="E13">
         <v>100</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="F13" t="str">
+        <f t="shared" si="0"/>
+        <v>是</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
         <v>13</v>
       </c>
@@ -10573,8 +12206,12 @@
       <c r="E14">
         <v>100</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="F14" t="str">
+        <f t="shared" si="0"/>
+        <v>是</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A15" s="2">
         <v>14</v>
       </c>
@@ -10590,16 +12227,20 @@
       <c r="E15">
         <v>100</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="F15" t="str">
+        <f t="shared" si="0"/>
+        <v>是</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A16" s="2">
         <v>15</v>
       </c>
       <c r="B16" s="4" t="s">
         <v>632</v>
       </c>
-      <c r="C16" s="8">
-        <v>17658118219</v>
+      <c r="C16" s="8" t="s">
+        <v>962</v>
       </c>
       <c r="D16">
         <v>51</v>
@@ -10607,8 +12248,12 @@
       <c r="E16">
         <v>100</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="F16" t="str">
+        <f t="shared" si="0"/>
+        <v>否</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A17" s="2">
         <v>16</v>
       </c>
@@ -10624,8 +12269,12 @@
       <c r="E17">
         <v>100</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="F17" t="str">
+        <f t="shared" si="0"/>
+        <v>否</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A18" s="2">
         <v>17</v>
       </c>
@@ -10641,8 +12290,12 @@
       <c r="E18">
         <v>99</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="F18" t="str">
+        <f t="shared" si="0"/>
+        <v>否</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A19" s="2">
         <v>18</v>
       </c>
@@ -10658,8 +12311,12 @@
       <c r="E19">
         <v>100</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="F19" t="str">
+        <f t="shared" si="0"/>
+        <v>是</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A20" s="2">
         <v>19</v>
       </c>
@@ -10675,8 +12332,12 @@
       <c r="E20">
         <v>97</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="F20" t="str">
+        <f t="shared" si="0"/>
+        <v>是</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A21" s="2">
         <v>20</v>
       </c>
@@ -10692,8 +12353,12 @@
       <c r="E21">
         <v>100</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="F21" t="str">
+        <f t="shared" si="0"/>
+        <v>是</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A22" s="2">
         <v>21</v>
       </c>
@@ -10709,8 +12374,12 @@
       <c r="E22">
         <v>100</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="F22" t="str">
+        <f t="shared" si="0"/>
+        <v>是</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A23" s="2">
         <v>22</v>
       </c>
@@ -10726,8 +12395,12 @@
       <c r="E23">
         <v>100</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="F23" t="str">
+        <f t="shared" si="0"/>
+        <v>是</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A24" s="2">
         <v>23</v>
       </c>
@@ -10743,8 +12416,12 @@
       <c r="E24">
         <v>96</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="F24" t="str">
+        <f t="shared" si="0"/>
+        <v>是</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A25" s="2">
         <v>24</v>
       </c>
@@ -10760,8 +12437,12 @@
       <c r="E25">
         <v>95</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="F25" t="str">
+        <f t="shared" si="0"/>
+        <v>是</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A26" s="2">
         <v>25</v>
       </c>
@@ -10777,8 +12458,12 @@
       <c r="E26">
         <v>100</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="F26" t="str">
+        <f t="shared" si="0"/>
+        <v>是</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A27" s="2">
         <v>26</v>
       </c>
@@ -10794,8 +12479,12 @@
       <c r="E27">
         <v>100</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="F27" t="str">
+        <f t="shared" si="0"/>
+        <v>是</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A28" s="2">
         <v>27</v>
       </c>
@@ -10811,8 +12500,12 @@
       <c r="E28">
         <v>100</v>
       </c>
-    </row>
-    <row r="29" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="F28" t="str">
+        <f t="shared" si="0"/>
+        <v>是</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A29" s="2">
         <v>28</v>
       </c>
@@ -10828,8 +12521,12 @@
       <c r="E29">
         <v>100</v>
       </c>
-    </row>
-    <row r="30" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="F29" t="str">
+        <f t="shared" si="0"/>
+        <v>是</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A30" s="2">
         <v>29</v>
       </c>
@@ -10845,8 +12542,12 @@
       <c r="E30">
         <v>100</v>
       </c>
-    </row>
-    <row r="31" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="F30" t="str">
+        <f t="shared" si="0"/>
+        <v>是</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A31" s="2">
         <v>30</v>
       </c>
@@ -10862,8 +12563,12 @@
       <c r="E31">
         <v>100</v>
       </c>
-    </row>
-    <row r="32" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="F31" t="str">
+        <f t="shared" si="0"/>
+        <v>是</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A32" s="2">
         <v>31</v>
       </c>
@@ -10879,8 +12584,12 @@
       <c r="E32">
         <v>100</v>
       </c>
-    </row>
-    <row r="33" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="F32" t="str">
+        <f t="shared" si="0"/>
+        <v>是</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A33" s="2">
         <v>32</v>
       </c>
@@ -10896,8 +12605,12 @@
       <c r="E33">
         <v>100</v>
       </c>
-    </row>
-    <row r="34" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="F33" t="str">
+        <f t="shared" si="0"/>
+        <v>是</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A34" s="2">
         <v>33</v>
       </c>
@@ -10913,8 +12626,12 @@
       <c r="E34">
         <v>100</v>
       </c>
-    </row>
-    <row r="35" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="F34" t="str">
+        <f t="shared" si="0"/>
+        <v>是</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A35" s="2">
         <v>34</v>
       </c>
@@ -10930,8 +12647,12 @@
       <c r="E35">
         <v>100</v>
       </c>
-    </row>
-    <row r="36" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="F35" t="str">
+        <f t="shared" si="0"/>
+        <v>是</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A36" s="2">
         <v>35</v>
       </c>
@@ -10947,8 +12668,12 @@
       <c r="E36">
         <v>100</v>
       </c>
-    </row>
-    <row r="37" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="F36" t="str">
+        <f t="shared" si="0"/>
+        <v>是</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A37" s="2">
         <v>36</v>
       </c>
@@ -10964,8 +12689,12 @@
       <c r="E37">
         <v>100</v>
       </c>
-    </row>
-    <row r="38" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="F37" t="str">
+        <f t="shared" si="0"/>
+        <v>是</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A38" s="2">
         <v>37</v>
       </c>
@@ -10981,8 +12710,12 @@
       <c r="E38">
         <v>100</v>
       </c>
-    </row>
-    <row r="39" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="F38" t="str">
+        <f t="shared" si="0"/>
+        <v>是</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A39" s="2">
         <v>38</v>
       </c>
@@ -10998,8 +12731,12 @@
       <c r="E39">
         <v>100</v>
       </c>
-    </row>
-    <row r="40" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="F39" t="str">
+        <f t="shared" si="0"/>
+        <v>是</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A40" s="2">
         <v>39</v>
       </c>
@@ -11015,8 +12752,12 @@
       <c r="E40">
         <v>100</v>
       </c>
-    </row>
-    <row r="41" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="F40" t="str">
+        <f t="shared" si="0"/>
+        <v>是</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A41" s="2">
         <v>40</v>
       </c>
@@ -11032,8 +12773,12 @@
       <c r="E41">
         <v>100</v>
       </c>
-    </row>
-    <row r="42" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="F41" t="str">
+        <f t="shared" si="0"/>
+        <v>是</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A42" s="2">
         <v>41</v>
       </c>
@@ -11049,8 +12794,12 @@
       <c r="E42">
         <v>100</v>
       </c>
-    </row>
-    <row r="43" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="F42" t="str">
+        <f t="shared" si="0"/>
+        <v>是</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A43" s="2">
         <v>42</v>
       </c>
@@ -11066,8 +12815,12 @@
       <c r="E43">
         <v>93</v>
       </c>
-    </row>
-    <row r="44" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="F43" t="str">
+        <f t="shared" si="0"/>
+        <v>是</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A44" s="2">
         <v>43</v>
       </c>
@@ -11082,6 +12835,10 @@
       </c>
       <c r="E44">
         <v>100</v>
+      </c>
+      <c r="F44" t="str">
+        <f t="shared" si="0"/>
+        <v>是</v>
       </c>
     </row>
   </sheetData>
@@ -11092,15 +12849,15 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06197CDB-207C-4546-845A-61C5029382D1}">
-  <dimension ref="A1:E45"/>
+  <dimension ref="A1:F45"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="E45" sqref="E45"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F50" sqref="F50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -11117,11 +12874,11 @@
         <v>92</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="5" t="s">
         <v>703</v>
       </c>
       <c r="C2" s="8" t="s">
@@ -11133,12 +12890,16 @@
       <c r="E2">
         <v>94</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="F2" t="str">
+        <f>IF(AND(D2&gt;=70,E2&gt;=60),"是","否")</f>
+        <v>否</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="3" t="s">
         <v>704</v>
       </c>
       <c r="C3" s="8" t="s">
@@ -11150,12 +12911,16 @@
       <c r="E3">
         <v>100</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="F3" t="str">
+        <f t="shared" ref="F3:F45" si="0">IF(AND(D3&gt;=70,E3&gt;=60),"是","否")</f>
+        <v>是</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="3" t="s">
         <v>705</v>
       </c>
       <c r="C4" s="8" t="s">
@@ -11167,12 +12932,16 @@
       <c r="E4">
         <v>100</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="F4" t="str">
+        <f t="shared" si="0"/>
+        <v>是</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="3" t="s">
         <v>706</v>
       </c>
       <c r="C5" s="8" t="s">
@@ -11184,12 +12953,16 @@
       <c r="E5">
         <v>100</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="F5" t="str">
+        <f t="shared" si="0"/>
+        <v>是</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="3" t="s">
         <v>707</v>
       </c>
       <c r="C6" s="8" t="s">
@@ -11201,12 +12974,16 @@
       <c r="E6">
         <v>100</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="F6" t="str">
+        <f t="shared" si="0"/>
+        <v>是</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="3" t="s">
         <v>708</v>
       </c>
       <c r="C7" s="8" t="s">
@@ -11218,12 +12995,16 @@
       <c r="E7">
         <v>100</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="F7" t="str">
+        <f t="shared" si="0"/>
+        <v>是</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>7</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="3" t="s">
         <v>709</v>
       </c>
       <c r="C8" s="8" t="s">
@@ -11235,12 +13016,16 @@
       <c r="E8">
         <v>100</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="F8" t="str">
+        <f t="shared" si="0"/>
+        <v>是</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>8</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="3" t="s">
         <v>710</v>
       </c>
       <c r="C9" s="8" t="s">
@@ -11252,12 +13037,16 @@
       <c r="E9">
         <v>100</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="F9" t="str">
+        <f t="shared" si="0"/>
+        <v>是</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>9</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="3" t="s">
         <v>711</v>
       </c>
       <c r="C10" s="8" t="s">
@@ -11269,12 +13058,16 @@
       <c r="E10">
         <v>100</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="F10" t="str">
+        <f t="shared" si="0"/>
+        <v>是</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>10</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="3" t="s">
         <v>712</v>
       </c>
       <c r="C11" s="8" t="s">
@@ -11286,12 +13079,16 @@
       <c r="E11">
         <v>100</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="F11" t="str">
+        <f t="shared" si="0"/>
+        <v>是</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>11</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="3" t="s">
         <v>713</v>
       </c>
       <c r="C12" s="8" t="s">
@@ -11303,12 +13100,16 @@
       <c r="E12">
         <v>100</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="F12" t="str">
+        <f t="shared" si="0"/>
+        <v>否</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>12</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="3" t="s">
         <v>714</v>
       </c>
       <c r="C13" s="8" t="s">
@@ -11320,12 +13121,16 @@
       <c r="E13">
         <v>100</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="F13" t="str">
+        <f t="shared" si="0"/>
+        <v>是</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>13</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="3" t="s">
         <v>715</v>
       </c>
       <c r="C14" s="8" t="s">
@@ -11337,12 +13142,16 @@
       <c r="E14">
         <v>100</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="F14" t="str">
+        <f t="shared" si="0"/>
+        <v>是</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>14</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="3" t="s">
         <v>716</v>
       </c>
       <c r="C15" s="8" t="s">
@@ -11354,12 +13163,16 @@
       <c r="E15">
         <v>100</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="F15" t="str">
+        <f t="shared" si="0"/>
+        <v>是</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>15</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="3" t="s">
         <v>717</v>
       </c>
       <c r="C16" s="8" t="s">
@@ -11371,12 +13184,16 @@
       <c r="E16">
         <v>94</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="F16" t="str">
+        <f t="shared" si="0"/>
+        <v>是</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>16</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" s="3" t="s">
         <v>718</v>
       </c>
       <c r="C17" s="8" t="s">
@@ -11388,12 +13205,16 @@
       <c r="E17">
         <v>100</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="F17" t="str">
+        <f t="shared" si="0"/>
+        <v>是</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>17</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" s="3" t="s">
         <v>719</v>
       </c>
       <c r="C18" s="8" t="s">
@@ -11405,12 +13226,16 @@
       <c r="E18">
         <v>100</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="F18" t="str">
+        <f t="shared" si="0"/>
+        <v>是</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>18</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" s="3" t="s">
         <v>720</v>
       </c>
       <c r="C19" s="8" t="s">
@@ -11422,12 +13247,16 @@
       <c r="E19">
         <v>100</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="F19" t="str">
+        <f t="shared" si="0"/>
+        <v>是</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>19</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20" s="3" t="s">
         <v>721</v>
       </c>
       <c r="C20" s="8" t="s">
@@ -11439,12 +13268,16 @@
       <c r="E20">
         <v>100</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="F20" t="str">
+        <f t="shared" si="0"/>
+        <v>是</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>20</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B21" s="3" t="s">
         <v>722</v>
       </c>
       <c r="C21" s="8" t="s">
@@ -11456,12 +13289,16 @@
       <c r="E21">
         <v>100</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="F21" t="str">
+        <f t="shared" si="0"/>
+        <v>是</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>21</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B22" s="3" t="s">
         <v>723</v>
       </c>
       <c r="C22" s="8" t="s">
@@ -11473,12 +13310,16 @@
       <c r="E22">
         <v>100</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="F22" t="str">
+        <f t="shared" si="0"/>
+        <v>是</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>22</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B23" s="3" t="s">
         <v>724</v>
       </c>
       <c r="C23" s="8" t="s">
@@ -11490,12 +13331,16 @@
       <c r="E23">
         <v>100</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="F23" t="str">
+        <f t="shared" si="0"/>
+        <v>是</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>23</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B24" s="3" t="s">
         <v>725</v>
       </c>
       <c r="C24" s="8" t="s">
@@ -11507,12 +13352,16 @@
       <c r="E24">
         <v>100</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="F24" t="str">
+        <f t="shared" si="0"/>
+        <v>是</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>24</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B25" s="3" t="s">
         <v>726</v>
       </c>
       <c r="C25" s="8" t="s">
@@ -11524,12 +13373,16 @@
       <c r="E25">
         <v>100</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="F25" t="str">
+        <f t="shared" si="0"/>
+        <v>是</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>25</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B26" s="3" t="s">
         <v>727</v>
       </c>
       <c r="C26" s="8" t="s">
@@ -11541,12 +13394,16 @@
       <c r="E26">
         <v>100</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="F26" t="str">
+        <f t="shared" si="0"/>
+        <v>是</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>26</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B27" s="3" t="s">
         <v>728</v>
       </c>
       <c r="C27" s="8" t="s">
@@ -11558,12 +13415,16 @@
       <c r="E27">
         <v>98</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="F27" t="str">
+        <f t="shared" si="0"/>
+        <v>是</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>27</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B28" s="3" t="s">
         <v>729</v>
       </c>
       <c r="C28" s="8" t="s">
@@ -11575,12 +13436,16 @@
       <c r="E28">
         <v>100</v>
       </c>
-    </row>
-    <row r="29" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="F28" t="str">
+        <f t="shared" si="0"/>
+        <v>是</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>28</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B29" s="3" t="s">
         <v>730</v>
       </c>
       <c r="C29" s="8" t="s">
@@ -11592,12 +13457,16 @@
       <c r="E29">
         <v>100</v>
       </c>
-    </row>
-    <row r="30" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="F29" t="str">
+        <f t="shared" si="0"/>
+        <v>是</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>29</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B30" s="3" t="s">
         <v>731</v>
       </c>
       <c r="C30" s="8" t="s">
@@ -11609,12 +13478,16 @@
       <c r="E30">
         <v>99</v>
       </c>
-    </row>
-    <row r="31" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="F30" t="str">
+        <f t="shared" si="0"/>
+        <v>是</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>30</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B31" s="3" t="s">
         <v>732</v>
       </c>
       <c r="C31" s="8" t="s">
@@ -11626,12 +13499,16 @@
       <c r="E31">
         <v>100</v>
       </c>
-    </row>
-    <row r="32" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="F31" t="str">
+        <f t="shared" si="0"/>
+        <v>是</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>31</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B32" s="3" t="s">
         <v>733</v>
       </c>
       <c r="C32" s="8" t="s">
@@ -11643,12 +13520,16 @@
       <c r="E32">
         <v>100</v>
       </c>
-    </row>
-    <row r="33" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="F32" t="str">
+        <f t="shared" si="0"/>
+        <v>是</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>32</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B33" s="3" t="s">
         <v>734</v>
       </c>
       <c r="C33" s="8" t="s">
@@ -11660,12 +13541,16 @@
       <c r="E33">
         <v>99</v>
       </c>
-    </row>
-    <row r="34" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="F33" t="str">
+        <f t="shared" si="0"/>
+        <v>是</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>33</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B34" s="3" t="s">
         <v>735</v>
       </c>
       <c r="C34" s="8" t="s">
@@ -11677,12 +13562,16 @@
       <c r="E34">
         <v>100</v>
       </c>
-    </row>
-    <row r="35" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="F34" t="str">
+        <f t="shared" si="0"/>
+        <v>是</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>34</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B35" s="3" t="s">
         <v>736</v>
       </c>
       <c r="C35" s="8" t="s">
@@ -11694,12 +13583,16 @@
       <c r="E35">
         <v>100</v>
       </c>
-    </row>
-    <row r="36" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="F35" t="str">
+        <f t="shared" si="0"/>
+        <v>是</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>35</v>
       </c>
-      <c r="B36" t="s">
+      <c r="B36" s="3" t="s">
         <v>737</v>
       </c>
       <c r="C36" s="8" t="s">
@@ -11711,12 +13604,16 @@
       <c r="E36">
         <v>100</v>
       </c>
-    </row>
-    <row r="37" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="F36" t="str">
+        <f t="shared" si="0"/>
+        <v>是</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>36</v>
       </c>
-      <c r="B37" t="s">
+      <c r="B37" s="3" t="s">
         <v>738</v>
       </c>
       <c r="C37" s="8" t="s">
@@ -11728,12 +13625,16 @@
       <c r="E37">
         <v>100</v>
       </c>
-    </row>
-    <row r="38" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="F37" t="str">
+        <f t="shared" si="0"/>
+        <v>是</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>37</v>
       </c>
-      <c r="B38" t="s">
+      <c r="B38" s="3" t="s">
         <v>739</v>
       </c>
       <c r="C38" s="8" t="s">
@@ -11745,12 +13646,16 @@
       <c r="E38">
         <v>99</v>
       </c>
-    </row>
-    <row r="39" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="F38" t="str">
+        <f t="shared" si="0"/>
+        <v>是</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>38</v>
       </c>
-      <c r="B39" t="s">
+      <c r="B39" s="5" t="s">
         <v>740</v>
       </c>
       <c r="C39" s="8" t="s">
@@ -11762,12 +13667,16 @@
       <c r="E39">
         <v>82</v>
       </c>
-    </row>
-    <row r="40" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="F39" t="str">
+        <f t="shared" si="0"/>
+        <v>否</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>39</v>
       </c>
-      <c r="B40" t="s">
+      <c r="B40" s="3" t="s">
         <v>741</v>
       </c>
       <c r="C40" s="8" t="s">
@@ -11779,12 +13688,16 @@
       <c r="E40">
         <v>100</v>
       </c>
-    </row>
-    <row r="41" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="F40" t="str">
+        <f t="shared" si="0"/>
+        <v>是</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>40</v>
       </c>
-      <c r="B41" t="s">
+      <c r="B41" s="3" t="s">
         <v>742</v>
       </c>
       <c r="C41" s="8" t="s">
@@ -11796,12 +13709,16 @@
       <c r="E41">
         <v>100</v>
       </c>
-    </row>
-    <row r="42" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="F41" t="str">
+        <f t="shared" si="0"/>
+        <v>是</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>41</v>
       </c>
-      <c r="B42" t="s">
+      <c r="B42" s="3" t="s">
         <v>743</v>
       </c>
       <c r="C42" s="8" t="s">
@@ -11813,12 +13730,16 @@
       <c r="E42">
         <v>94</v>
       </c>
-    </row>
-    <row r="43" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="F42" t="str">
+        <f t="shared" si="0"/>
+        <v>是</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>42</v>
       </c>
-      <c r="B43" t="s">
+      <c r="B43" s="3" t="s">
         <v>744</v>
       </c>
       <c r="C43" s="8" t="s">
@@ -11830,12 +13751,16 @@
       <c r="E43">
         <v>100</v>
       </c>
-    </row>
-    <row r="44" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="F43" t="str">
+        <f t="shared" si="0"/>
+        <v>否</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>43</v>
       </c>
-      <c r="B44" t="s">
+      <c r="B44" s="3" t="s">
         <v>745</v>
       </c>
       <c r="C44" s="8" t="s">
@@ -11847,12 +13772,16 @@
       <c r="E44">
         <v>100</v>
       </c>
-    </row>
-    <row r="45" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="F44" t="str">
+        <f t="shared" si="0"/>
+        <v>是</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>44</v>
       </c>
-      <c r="B45" t="s">
+      <c r="B45" s="3" t="s">
         <v>746</v>
       </c>
       <c r="C45" s="8" t="s">
@@ -11863,6 +13792,10 @@
       </c>
       <c r="E45">
         <v>100</v>
+      </c>
+      <c r="F45" t="str">
+        <f t="shared" si="0"/>
+        <v>是</v>
       </c>
     </row>
   </sheetData>
